--- a/Lab3/random_number_generator.xlsx
+++ b/Lab3/random_number_generator.xlsx
@@ -3,13 +3,47 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57613497-918B-4C6A-9D48-90AC5F7E74A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7101A7E6-6B56-44D2-B284-6CCA405D7132}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 3.2" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 3.3" sheetId="2" r:id="rId2"/>
+    <sheet name="Table 3.4,3.5" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Table 3.3'!$C$2</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Table 3.3'!$C$2:$C$22</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Table 3.3'!$C$2</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Table 3.3'!$C$2:$C$22</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Table 3.3'!$C$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Table 3.3'!$C$2:$C$22</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Table 3.3'!$C$2</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Table 3.3'!$C$2:$C$22</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Table 3.3'!$C$2</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Table 3.3'!$C$2:$C$22</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Table 3.3'!$C$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Table 3.3'!$C$2:$C$22</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Table 3.3'!$C$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Table 3.3'!$C$2:$C$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Variable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,12 +115,136 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Table 3.3: Measured weights for One and Thirds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Observation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight(g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Five Point Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Table 3.4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Table to help calculate standard deviation for</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> One</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Table 3.5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Table to help calculate standard deviation for</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Thirds</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x-mean(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(x-mean(x))^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +271,35 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,11 +307,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,10 +337,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -166,6 +367,786 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Side-by-Side Boxplot</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>Side-by-Side Boxplot</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{A2A5EE9D-108F-4A2E-946A-0DB63C6A731A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>Weight(g)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Measurement Cup</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1400"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:rPr>
+                <a:t>Measurement Cup</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1" hidden="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1100">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Weight(g)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="407">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>150494</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388619</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>140969</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="图表 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300898FC-668A-4265-A215-0F93CC5D03BE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4013834" y="1605914"/>
+              <a:ext cx="5602605" cy="2809875"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1"/>
@@ -448,429 +1429,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="30.6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <f ca="1">RAND()*100</f>
-        <v>4.0453844566887724</v>
-      </c>
-      <c r="D3" s="3" t="str">
+        <v>98.929370928572467</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f ca="1">VLOOKUP(E3,$A$3:$B$22,2,FALSE)</f>
-        <v>Thirds</v>
-      </c>
-      <c r="E3" s="3">
+        <v>One</v>
+      </c>
+      <c r="E3" s="4">
         <f ca="1">RANK(C3,$C$3:$C$22)</f>
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.3">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <f t="shared" ref="C4:C22" ca="1" si="0">RAND()*100</f>
-        <v>21.114235288684689</v>
-      </c>
-      <c r="D4" s="3" t="str">
+        <v>83.61963826749087</v>
+      </c>
+      <c r="D4" s="4" t="str">
         <f t="shared" ref="D4:D22" ca="1" si="1">VLOOKUP(E4,$A$3:$B$22,2,FALSE)</f>
-        <v>Thirds</v>
-      </c>
-      <c r="E4" s="3">
+        <v>One</v>
+      </c>
+      <c r="E4" s="4">
         <f t="shared" ref="E4:E22" ca="1" si="2">RANK(C4,$C$3:$C$22)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.3">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>19.731889174904094</v>
-      </c>
-      <c r="D5" s="3" t="str">
+        <v>44.660690765479281</v>
+      </c>
+      <c r="D5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Thirds</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>69.843103303528281</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>One</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>79.727058829135672</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>One</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.036693667102604</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Thirds</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>89.209348224920831</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>One</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.72244517457969</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Thirds</v>
+      </c>
+      <c r="E10" s="4">
         <f t="shared" ca="1" si="2"/>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.3">
-      <c r="A6" s="3">
+    <row r="11" spans="1:5" ht="15.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="C11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>55.631343501894456</v>
-      </c>
-      <c r="D6" s="3" t="str">
+        <v>81.695606576933997</v>
+      </c>
+      <c r="D11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>One</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E11" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>75.912578366526944</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>One</v>
+      </c>
+      <c r="E12" s="4">
         <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.3">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
+    <row r="13" spans="1:5" ht="15.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>83.12206871461936</v>
-      </c>
-      <c r="D7" s="3" t="str">
+        <v>60.911916082763341</v>
+      </c>
+      <c r="D13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>One</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E13" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8194671964148821</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Thirds</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.3">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9551855936333462</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Thirds</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.3">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2968800426418259</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Thirds</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.3">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>98.77022477553794</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>One</v>
+      </c>
+      <c r="E17" s="4">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.3">
-      <c r="A8" s="3">
+    <row r="18" spans="1:5" ht="15.3">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="C18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>98.469322181166532</v>
-      </c>
-      <c r="D8" s="3" t="str">
+        <v>79.371970212467303</v>
+      </c>
+      <c r="D18" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>One</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.3">
-      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5">
+    </row>
+    <row r="19" spans="1:5" ht="15.3">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>68.023747969435192</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>One</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.3">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>41.174887870260946</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>One</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.3">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>38.948772082746821</v>
-      </c>
-      <c r="D11" s="3" t="str">
+        <v>42.029199743962167</v>
+      </c>
+      <c r="D19" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Thirds</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E19" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>57.018951597054482</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Thirds</v>
+      </c>
+      <c r="E20" s="4">
         <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.3">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5">
+    <row r="21" spans="1:5" ht="15.3">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>13.47886518016993</v>
-      </c>
-      <c r="D12" s="3" t="str">
+        <v>16.612525400741561</v>
+      </c>
+      <c r="D21" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Thirds</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E21" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.3">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.3">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3677387619757706</v>
-      </c>
-      <c r="D13" s="3" t="str">
+        <v>0.66516027137334399</v>
+      </c>
+      <c r="D22" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Thirds</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E22" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.3">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>62.031164464223806</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>One</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.3">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>57.265469154259506</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>One</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.3">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>57.171911022997001</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>One</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.3">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>21.251705886349114</v>
-      </c>
-      <c r="D17" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.3">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>81.212345300273469</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>One</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.3">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.084452452728172</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.3">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>47.356227882792133</v>
-      </c>
-      <c r="D20" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>One</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.3">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>33.632075689807436</v>
-      </c>
-      <c r="D21" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.3">
-      <c r="A22" s="3">
         <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.8734162492038706</v>
-      </c>
-      <c r="D22" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -881,4 +1862,578 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3A3CA-9568-4A2A-887D-B2126F4FAA24}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3"/>
+  <cols>
+    <col min="1" max="1" width="13.546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.1484375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D3</f>
+        <v>One</v>
+      </c>
+      <c r="C3" s="4">
+        <v>113</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D4</f>
+        <v>One</v>
+      </c>
+      <c r="C4" s="4">
+        <v>114</v>
+      </c>
+      <c r="F4" s="7">
+        <f>MIN($C$3:$C$22)</f>
+        <v>113</v>
+      </c>
+      <c r="G4" s="7">
+        <f>_xlfn.QUARTILE.EXC($C$3:$C$22,1)</f>
+        <v>117.25</v>
+      </c>
+      <c r="H4" s="7">
+        <f>MEDIAN($C$3:$C$22)</f>
+        <v>122.5</v>
+      </c>
+      <c r="I4" s="7">
+        <f>_xlfn.QUARTILE.EXC($C$3:$C$22,3)</f>
+        <v>127.75</v>
+      </c>
+      <c r="J4" s="7">
+        <f>MAX($C$3:$C$22)</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D5</f>
+        <v>Thirds</v>
+      </c>
+      <c r="C5" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D6</f>
+        <v>One</v>
+      </c>
+      <c r="C6" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D7</f>
+        <v>One</v>
+      </c>
+      <c r="C7" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D8</f>
+        <v>Thirds</v>
+      </c>
+      <c r="C8" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D9</f>
+        <v>One</v>
+      </c>
+      <c r="C9" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D10</f>
+        <v>Thirds</v>
+      </c>
+      <c r="C10" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D11</f>
+        <v>One</v>
+      </c>
+      <c r="C11" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D12</f>
+        <v>One</v>
+      </c>
+      <c r="C12" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D13</f>
+        <v>One</v>
+      </c>
+      <c r="C13" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D14</f>
+        <v>Thirds</v>
+      </c>
+      <c r="C14" s="4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D15</f>
+        <v>Thirds</v>
+      </c>
+      <c r="C15" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D16</f>
+        <v>Thirds</v>
+      </c>
+      <c r="C16" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D17</f>
+        <v>One</v>
+      </c>
+      <c r="C17" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D18</f>
+        <v>One</v>
+      </c>
+      <c r="C18" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D19</f>
+        <v>Thirds</v>
+      </c>
+      <c r="C19" s="4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D20</f>
+        <v>Thirds</v>
+      </c>
+      <c r="C20" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D21</f>
+        <v>Thirds</v>
+      </c>
+      <c r="C21" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f ca="1">'Table 3.2'!$D22</f>
+        <v>Thirds</v>
+      </c>
+      <c r="C22" s="4">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D71D05-7FB7-4FD6-9F4F-C9DC2DF2BA36}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="2"/>
+    <col min="2" max="2" width="14.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.6484375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4">
+        <v>9</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Lab3/random_number_generator.xlsx
+++ b/Lab3/random_number_generator.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7101A7E6-6B56-44D2-B284-6CCA405D7132}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC430A1B-8AA5-408A-99AA-03E8FD1D02F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,36 +13,9 @@
     <sheet name="Table 3.4,3.5" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Table 3.3'!$C$2</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Table 3.3'!$C$2:$C$22</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Table 3.3'!$C$2</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Table 3.3'!$C$2:$C$22</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Table 3.3'!$C$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Table 3.3'!$C$2:$C$22</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Table 3.3'!$C$2</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Table 3.3'!$C$2:$C$22</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Table 3.3'!$C$2</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Table 3.3'!$C$2:$C$22</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Table 3.3'!$C$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Table 3.3'!$C$2:$C$22</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Table 3.3'!$C$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Table 3.3'!$C$2:$C$22</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Table 3.3'!$C$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
   <si>
     <t>Variable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,11 +212,44 @@
     <t>s =</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>One</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thirds</t>
+  </si>
+  <si>
+    <t>Thirds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Observation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thrds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.0"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -285,7 +291,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,12 +338,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -346,10 +355,31 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -374,10 +404,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -416,7 +446,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A2A5EE9D-108F-4A2E-946A-0DB63C6A731A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Weight(g)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1070,16 +1100,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>150494</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>51434</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>577215</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>388619</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>140969</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1115,8 +1145,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4013834" y="1605914"/>
-              <a:ext cx="5602605" cy="2809875"/>
+              <a:off x="3769995" y="2474594"/>
+              <a:ext cx="5385435" cy="3007996"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1415,7 +1445,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1"/>
@@ -1430,428 +1460,428 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="30.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f ca="1">RAND()*100</f>
-        <v>98.929370928572467</v>
-      </c>
-      <c r="D3" s="4" t="str">
+        <v>69.428329196061938</v>
+      </c>
+      <c r="D3" s="3" t="str">
         <f ca="1">VLOOKUP(E3,$A$3:$B$22,2,FALSE)</f>
         <v>One</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f ca="1">RANK(C3,$C$3:$C$22)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f t="shared" ref="C4:C22" ca="1" si="0">RAND()*100</f>
-        <v>83.61963826749087</v>
-      </c>
-      <c r="D4" s="4" t="str">
+        <v>83.343620239794021</v>
+      </c>
+      <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D22" ca="1" si="1">VLOOKUP(E4,$A$3:$B$22,2,FALSE)</f>
         <v>One</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E22" ca="1" si="2">RANK(C4,$C$3:$C$22)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>44.660690765479281</v>
-      </c>
-      <c r="D5" s="4" t="str">
+        <v>24.80881352633838</v>
+      </c>
+      <c r="D5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Thirds</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>46.82230843831411</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>One</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.8077837925837574</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Thirds</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>33.589241142533211</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Thirds</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1211737654396821</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Thirds</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>93.335343230676443</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>One</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>59.044723395117984</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>One</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>36.703731969158113</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Thirds</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.3">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6">
+    <row r="13" spans="1:5" ht="15.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>69.843103303528281</v>
-      </c>
-      <c r="D6" s="4" t="str">
+        <v>89.067676046651798</v>
+      </c>
+      <c r="D13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>One</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E13" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43.472059755173461</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Thirds</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8953076189491753</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Thirds</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.3">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>47.985299473680797</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>One</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.3">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6">
+    <row r="17" spans="1:5" ht="15.3">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>79.727058829135672</v>
-      </c>
-      <c r="D7" s="4" t="str">
+        <v>35.045981586034046</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Thirds</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.3">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.652616254984103</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Thirds</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>79.827319190607355</v>
+      </c>
+      <c r="D19" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>One</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E19" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.3">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>53.320133206123764</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>One</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>64.842578520521144</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>One</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.3">
-      <c r="A8" s="4">
+    <row r="22" spans="1:5" ht="15.3">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="C22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>25.036693667102604</v>
-      </c>
-      <c r="D8" s="4" t="str">
+        <v>29.774580350644385</v>
+      </c>
+      <c r="D22" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Thirds</v>
       </c>
-      <c r="E8" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.3">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>89.209348224920831</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>One</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.3">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.72244517457969</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.3">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>81.695606576933997</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>One</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.3">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>75.912578366526944</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>One</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.3">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>60.911916082763341</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>One</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.3">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.8194671964148821</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.3">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9551855936333462</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.3">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2968800426418259</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.3">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>98.77022477553794</v>
-      </c>
-      <c r="D17" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>One</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.3">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>79.371970212467303</v>
-      </c>
-      <c r="D18" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>One</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.3">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>42.029199743962167</v>
-      </c>
-      <c r="D19" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.3">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>57.018951597054482</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.3">
-      <c r="A21" s="4">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.612525400741561</v>
-      </c>
-      <c r="D21" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="E22" s="3">
         <f t="shared" ca="1" si="2"/>
         <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.3">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.66516027137334399</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1866,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3A3CA-9568-4A2A-887D-B2126F4FAA24}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
@@ -1877,326 +1907,460 @@
     <col min="1" max="1" width="13.546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.1484375" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.19921875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="2"/>
+    <col min="4" max="4" width="8.796875" style="2"/>
+    <col min="5" max="5" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9">
+        <v>122.8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>122.8</v>
+      </c>
+      <c r="G3" s="9">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9">
+        <v>112.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>112.6</v>
+      </c>
+      <c r="G4" s="9">
+        <v>112.9</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D3</f>
-        <v>One</v>
-      </c>
-      <c r="C3" s="4">
-        <v>113</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9">
+        <v>112.9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>118.6</v>
+      </c>
+      <c r="G5" s="9">
+        <v>115.4</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9">
+        <v>112.6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9">
+        <v>109.9</v>
+      </c>
+      <c r="G6" s="9">
+        <v>106.8</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D4</f>
-        <v>One</v>
-      </c>
-      <c r="C4" s="4">
-        <v>114</v>
-      </c>
-      <c r="F4" s="7">
-        <f>MIN($C$3:$C$22)</f>
-        <v>113</v>
-      </c>
-      <c r="G4" s="7">
-        <f>_xlfn.QUARTILE.EXC($C$3:$C$22,1)</f>
-        <v>117.25</v>
-      </c>
-      <c r="H4" s="7">
-        <f>MEDIAN($C$3:$C$22)</f>
-        <v>122.5</v>
-      </c>
-      <c r="I4" s="7">
-        <f>_xlfn.QUARTILE.EXC($C$3:$C$22,3)</f>
-        <v>127.75</v>
-      </c>
-      <c r="J4" s="7">
-        <f>MAX($C$3:$C$22)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D5</f>
-        <v>Thirds</v>
-      </c>
-      <c r="C5" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D6</f>
-        <v>One</v>
-      </c>
-      <c r="C6" s="4">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4">
+    <row r="7" spans="1:14">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D7</f>
-        <v>One</v>
-      </c>
-      <c r="C7" s="4">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4">
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9">
+        <v>115.4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9">
+        <v>120.1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>113.7</v>
+      </c>
+      <c r="J7" s="12">
+        <f>MIN($F$3:$F$12)</f>
+        <v>108.1</v>
+      </c>
+      <c r="K7" s="12">
+        <f>_xlfn.QUARTILE.EXC($F$3:$F$12,1)</f>
+        <v>111.925</v>
+      </c>
+      <c r="L7" s="12">
+        <f>MEDIAN($F$3:$F$12)</f>
+        <v>119</v>
+      </c>
+      <c r="M7" s="12">
+        <f>_xlfn.QUARTILE.EXC($F$3:$F$12,3)</f>
+        <v>120.52499999999999</v>
+      </c>
+      <c r="N7" s="12">
+        <f>MAX($F$3:$F$12)</f>
+        <v>122.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D8</f>
-        <v>Thirds</v>
-      </c>
-      <c r="C8" s="4">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="4">
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="9">
+        <v>106.8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="9">
+        <v>115.2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>112.4</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D9</f>
-        <v>One</v>
-      </c>
-      <c r="C9" s="4">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4">
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9">
+        <v>113.7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7</v>
+      </c>
+      <c r="F9" s="9">
+        <v>108.1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>118.1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D10</f>
-        <v>Thirds</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9">
+        <v>112.4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8</v>
+      </c>
+      <c r="F10" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4">
+      <c r="G10" s="9">
+        <v>110.9</v>
+      </c>
+      <c r="J10" s="12">
+        <f>MIN($G$3:$G$12)</f>
+        <v>106.8</v>
+      </c>
+      <c r="K10" s="12">
+        <f>_xlfn.QUARTILE.EXC($G$3:$G$12,1)</f>
+        <v>111.8</v>
+      </c>
+      <c r="L10" s="12">
+        <f>MEDIAN($G$3:$G$12)</f>
+        <v>112.65</v>
+      </c>
+      <c r="M10" s="12">
+        <f>_xlfn.QUARTILE.EXC($G$3:$G$12,3)</f>
+        <v>115.9</v>
+      </c>
+      <c r="N10" s="12">
+        <f>MAX($G$3:$G$12)</f>
+        <v>118.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D11</f>
-        <v>One</v>
-      </c>
-      <c r="C11" s="4">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="4">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="9">
+        <v>118.6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>9</v>
+      </c>
+      <c r="F11" s="9">
+        <v>121.8</v>
+      </c>
+      <c r="G11" s="9">
+        <v>112.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D12</f>
-        <v>One</v>
-      </c>
-      <c r="C12" s="4">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4">
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="9">
+        <v>109.9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9">
+        <v>119.4</v>
+      </c>
+      <c r="G12" s="9">
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D13</f>
-        <v>One</v>
-      </c>
-      <c r="C13" s="4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4">
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9">
+        <v>120.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D14</f>
-        <v>Thirds</v>
-      </c>
-      <c r="C14" s="4">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4">
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="9">
+        <v>118.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D15</f>
-        <v>Thirds</v>
-      </c>
-      <c r="C15" s="4">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="4">
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="9">
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D16</f>
-        <v>Thirds</v>
-      </c>
-      <c r="C16" s="4">
-        <v>126</v>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="9">
+        <v>108.1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D17</f>
-        <v>One</v>
-      </c>
-      <c r="C17" s="4">
-        <v>127</v>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="9">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D18</f>
-        <v>One</v>
-      </c>
-      <c r="C18" s="4">
-        <v>128</v>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="9">
+        <v>110.9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D19</f>
-        <v>Thirds</v>
-      </c>
-      <c r="C19" s="4">
-        <v>129</v>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9">
+        <v>121.8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D20</f>
-        <v>Thirds</v>
-      </c>
-      <c r="C20" s="4">
-        <v>130</v>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9">
+        <v>112.2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D21</f>
-        <v>Thirds</v>
-      </c>
-      <c r="C21" s="4">
-        <v>131</v>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="9">
+        <v>117.4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="str">
-        <f ca="1">'Table 3.2'!$D22</f>
-        <v>Thirds</v>
-      </c>
-      <c r="C22" s="4">
-        <v>132</v>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="9">
+        <v>119.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="J8:N8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D71D05-7FB7-4FD6-9F4F-C9DC2DF2BA36}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
@@ -2208,225 +2372,459 @@
     <col min="5" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4">
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4">
+      <c r="B3" s="9">
+        <f>'Table 3.3'!F3</f>
+        <v>122.8</v>
+      </c>
+      <c r="C3" s="8">
+        <f>B3-AVERAGE($B$3:$B$12)</f>
+        <v>5.9499999999999744</v>
+      </c>
+      <c r="D3" s="8">
+        <f>C3^2</f>
+        <v>35.402499999999698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4">
+      <c r="B4" s="9">
+        <f>'Table 3.3'!F4</f>
+        <v>112.6</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" ref="C4:C12" si="0">B4-AVERAGE($B$3:$B$12)</f>
+        <v>-4.2500000000000284</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D12" si="1">C4^2</f>
+        <v>18.062500000000242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4">
+      <c r="B5" s="9">
+        <f>'Table 3.3'!F5</f>
+        <v>118.6</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7499999999999716</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="1"/>
+        <v>3.0624999999999005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4">
+      <c r="B6" s="9">
+        <f>'Table 3.3'!F6</f>
+        <v>109.9</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.9500000000000171</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="1"/>
+        <v>48.302500000000236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4">
+      <c r="B7" s="9">
+        <f>'Table 3.3'!F7</f>
+        <v>120.1</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>3.2499999999999716</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="1"/>
+        <v>10.562499999999815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4">
+      <c r="B8" s="9">
+        <f>'Table 3.3'!F8</f>
+        <v>115.2</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.6500000000000199</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="1"/>
+        <v>2.7225000000000659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4">
+      <c r="B9" s="9">
+        <f>'Table 3.3'!F9</f>
+        <v>108.1</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>-8.7500000000000284</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>76.562500000000497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4">
+      <c r="B10" s="9">
+        <f>'Table 3.3'!F10</f>
+        <v>120</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.1499999999999773</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="1"/>
+        <v>9.9224999999998573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4">
+      <c r="B11" s="9">
+        <f>'Table 3.3'!F11</f>
+        <v>121.8</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>4.9499999999999744</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="1"/>
+        <v>24.502499999999745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="9">
+        <f>'Table 3.3'!F12</f>
+        <v>119.4</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5499999999999829</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="1"/>
+        <v>6.5024999999999133</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="6">
+        <f>SUM(B3:B12)</f>
+        <v>1168.5000000000002</v>
+      </c>
+      <c r="C13" s="10">
+        <f>SUM(C3:C12)</f>
+        <v>-2.4158453015843406E-13</v>
+      </c>
+      <c r="D13" s="6">
+        <f>SUM(D3:D12)</f>
+        <v>235.60499999999996</v>
+      </c>
+      <c r="E13" s="13">
+        <f>SQRT(D13/(A12-1))</f>
+        <v>5.1164766522806815</v>
+      </c>
+      <c r="F13" s="14">
+        <f>AVERAGE(B3:B12)</f>
+        <v>116.85000000000002</v>
+      </c>
+      <c r="G13" s="14">
+        <f>MEDIAN(B3:B12)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
+      <c r="B17" s="9">
+        <f>'Table 3.3'!G3</f>
+        <v>112.1</v>
+      </c>
+      <c r="C17" s="8">
+        <f>B17-AVERAGE($B$17:$B$26)</f>
+        <v>-1.0900000000000176</v>
+      </c>
+      <c r="D17" s="8">
+        <f>C17^2</f>
+        <v>1.1881000000000383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4">
+      <c r="B18" s="9">
+        <f>'Table 3.3'!G4</f>
+        <v>112.9</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" ref="C18:C26" si="2">B18-AVERAGE($B$17:$B$26)</f>
+        <v>-0.29000000000000625</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" ref="D18:D26" si="3">C18^2</f>
+        <v>8.410000000000363E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4">
+      <c r="B19" s="9">
+        <f>'Table 3.3'!G5</f>
+        <v>115.4</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="2"/>
+        <v>2.2099999999999937</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="3"/>
+        <v>4.8840999999999726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
+      <c r="B20" s="9">
+        <f>'Table 3.3'!G6</f>
+        <v>106.8</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="2"/>
+        <v>-6.3900000000000148</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="3"/>
+        <v>40.832100000000189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4">
+      <c r="B21" s="9">
+        <f>'Table 3.3'!G7</f>
+        <v>113.7</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.50999999999999091</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="3"/>
+        <v>0.26009999999999073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4">
+      <c r="B22" s="9">
+        <f>'Table 3.3'!G8</f>
+        <v>112.4</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.79000000000000625</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="3"/>
+        <v>0.62410000000000987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4">
+      <c r="B23" s="9">
+        <f>'Table 3.3'!G9</f>
+        <v>118.1</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="2"/>
+        <v>4.9099999999999824</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="3"/>
+        <v>24.108099999999826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4">
+      <c r="B24" s="9">
+        <f>'Table 3.3'!G10</f>
+        <v>110.9</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.2900000000000063</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="3"/>
+        <v>5.2441000000000288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
         <v>9</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4">
+      <c r="B25" s="9">
+        <f>'Table 3.3'!G11</f>
+        <v>112.2</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.99000000000000909</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="3"/>
+        <v>0.98010000000001796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
         <v>10</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="9">
+        <f>'Table 3.3'!G12</f>
+        <v>117.4</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" si="2"/>
+        <v>4.2099999999999937</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="3"/>
+        <v>17.724099999999947</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="F26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="6">
+        <f>SUM(B17:B26)</f>
+        <v>1131.9000000000001</v>
+      </c>
+      <c r="C27" s="10">
+        <f>SUM(C17:C26)</f>
+        <v>-9.9475983006414026E-14</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" ref="C27:D27" si="4">SUM(D17:D26)</f>
+        <v>95.929000000000045</v>
+      </c>
+      <c r="E27" s="13">
+        <f>SQRT(D27/(A26-1))</f>
+        <v>3.2647783657972531</v>
+      </c>
+      <c r="F27" s="14">
+        <f>AVERAGE(B17:B26)</f>
+        <v>113.19000000000001</v>
+      </c>
+      <c r="G27" s="14">
+        <f>MEDIAN(B17:B26)</f>
+        <v>112.65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Lab3/random_number_generator.xlsx
+++ b/Lab3/random_number_generator.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC430A1B-8AA5-408A-99AA-03E8FD1D02F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D03949C-C867-4EEA-98F6-048382749431}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,9 +13,9 @@
     <sheet name="Table 3.4,3.5" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Table 3.3'!$B$3:$B$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Table 3.3'!$C$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Table 3.3'!$D$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Table 3.3'!$D$3:$D$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
   <si>
     <t>Variable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,13 +242,17 @@
     <t>median</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -338,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,7 +368,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -379,7 +383,13 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1100,13 +1110,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>577215</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
@@ -1460,12 +1470,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30.6">
       <c r="A2" s="3" t="s">
@@ -1493,15 +1503,15 @@
       </c>
       <c r="C3" s="5">
         <f ca="1">RAND()*100</f>
-        <v>69.428329196061938</v>
+        <v>33.191492291802639</v>
       </c>
       <c r="D3" s="3" t="str">
         <f ca="1">VLOOKUP(E3,$A$3:$B$22,2,FALSE)</f>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E3" s="3">
         <f ca="1">RANK(C3,$C$3:$C$22)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.3">
@@ -1513,7 +1523,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C22" ca="1" si="0">RAND()*100</f>
-        <v>83.343620239794021</v>
+        <v>60.390966618795105</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D22" ca="1" si="1">VLOOKUP(E4,$A$3:$B$22,2,FALSE)</f>
@@ -1521,7 +1531,7 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E22" ca="1" si="2">RANK(C4,$C$3:$C$22)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.3">
@@ -1533,15 +1543,15 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>24.80881352633838</v>
+        <v>72.828550981821635</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.3">
@@ -1553,15 +1563,15 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>46.82230843831411</v>
+        <v>17.915803151437803</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.3">
@@ -1573,15 +1583,15 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8077837925837574</v>
+        <v>61.040982824035808</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.3">
@@ -1593,7 +1603,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.589241142533211</v>
+        <v>49.603251289192777</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1601,7 +1611,7 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.3">
@@ -1613,7 +1623,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1211737654396821</v>
+        <v>48.86169395116616</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1621,7 +1631,7 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.3">
@@ -1633,7 +1643,7 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>93.335343230676443</v>
+        <v>63.976283206642691</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1641,7 +1651,7 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.3">
@@ -1653,15 +1663,15 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>59.044723395117984</v>
+        <v>35.323510519014334</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.3">
@@ -1673,7 +1683,7 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>36.703731969158113</v>
+        <v>26.119948728094766</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1681,7 +1691,7 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.3">
@@ -1693,7 +1703,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>89.067676046651798</v>
+        <v>78.685621754788698</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1713,15 +1723,15 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43.472059755173461</v>
+        <v>64.537930561776577</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.3">
@@ -1733,15 +1743,15 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8953076189491753</v>
+        <v>92.192212193884714</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.3">
@@ -1753,15 +1763,15 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>47.985299473680797</v>
+        <v>32.735573700922394</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.3">
@@ -1773,7 +1783,7 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>35.045981586034046</v>
+        <v>24.664347486068305</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1781,7 +1791,7 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.3">
@@ -1793,7 +1803,7 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>23.652616254984103</v>
+        <v>40.792927998522487</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1801,7 +1811,7 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.3">
@@ -1813,7 +1823,7 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>79.827319190607355</v>
+        <v>76.822950093819927</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1821,7 +1831,7 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.3">
@@ -1833,15 +1843,15 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>53.320133206123764</v>
+        <v>12.635176004290427</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.3">
@@ -1853,7 +1863,7 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>64.842578520521144</v>
+        <v>64.683088085076378</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1861,7 +1871,7 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.3">
@@ -1873,15 +1883,15 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>29.774580350644385</v>
+        <v>56.582225988147606</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1896,457 +1906,561 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3A3CA-9568-4A2A-887D-B2126F4FAA24}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="13.546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.1484375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="2"/>
-    <col min="5" max="5" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="8.796875" style="7"/>
+    <col min="2" max="2" width="13.546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.1484375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="6" max="6" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15">
+      <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3">
+    <row r="3" spans="1:15">
+      <c r="A3" s="11" t="str">
+        <f>C3&amp;COUNTIF($C$3:C3,C3)</f>
+        <v>One1</v>
+      </c>
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9">
+      <c r="D3" s="9">
         <v>122.8</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
+      <c r="G3" s="9">
+        <f>VLOOKUP("One1",$A$3:$D$22,4,FALSE)</f>
         <v>122.8</v>
       </c>
-      <c r="G3" s="9">
+      <c r="H3" s="9">
+        <f>VLOOKUP("Thirds1",$A$3:$D$22,4,FALSE)</f>
         <v>112.1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="3">
+    <row r="4" spans="1:15">
+      <c r="A4" s="11" t="str">
+        <f>C4&amp;COUNTIF($C$3:C4,C4)</f>
+        <v>Thirds1</v>
+      </c>
+      <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="9">
+      <c r="D4" s="9">
         <v>112.1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
+        <f>VLOOKUP("One2",$A$3:$D$22,4,FALSE)</f>
         <v>112.6</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="9">
+        <f>VLOOKUP("Thirds2",$A$3:$D$22,4,FALSE)</f>
         <v>112.9</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="3">
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="11" t="str">
+        <f>C5&amp;COUNTIF($C$3:C5,C5)</f>
+        <v>Thirds2</v>
+      </c>
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9">
+      <c r="D5" s="9">
         <v>112.9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G5" s="9">
+        <f>VLOOKUP("One3",$A$3:$D$22,4,FALSE)</f>
         <v>118.6</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
+        <f>VLOOKUP("Thirds3",$A$3:$D$22,4,FALSE)</f>
         <v>115.4</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="3">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="11" t="str">
+        <f>C6&amp;COUNTIF($C$3:C6,C6)</f>
+        <v>One2</v>
+      </c>
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9">
+      <c r="D6" s="9">
         <v>112.6</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G6" s="9">
+        <f>VLOOKUP("One4",$A$3:$D$22,4,FALSE)</f>
         <v>109.9</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
+        <f>VLOOKUP("Thirds4",$A$3:$D$22,4,FALSE)</f>
         <v>106.8</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="3">
+    <row r="7" spans="1:15">
+      <c r="A7" s="11" t="str">
+        <f>C7&amp;COUNTIF($C$3:C7,C7)</f>
+        <v>Thirds3</v>
+      </c>
+      <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9">
+      <c r="D7" s="9">
         <v>115.4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
+        <f>VLOOKUP("One5",$A$3:$D$22,4,FALSE)</f>
         <v>120.1</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
+        <f>VLOOKUP("Thirds5",$A$3:$D$22,4,FALSE)</f>
         <v>113.7</v>
       </c>
-      <c r="J7" s="12">
-        <f>MIN($F$3:$F$12)</f>
+      <c r="K7" s="12">
+        <f>MIN($G$3:$G$12)</f>
         <v>108.1</v>
       </c>
-      <c r="K7" s="12">
-        <f>_xlfn.QUARTILE.EXC($F$3:$F$12,1)</f>
+      <c r="L7" s="12">
+        <f>_xlfn.QUARTILE.EXC($G$3:$G$12,1)</f>
         <v>111.925</v>
       </c>
-      <c r="L7" s="12">
-        <f>MEDIAN($F$3:$F$12)</f>
+      <c r="M7" s="12">
+        <f>MEDIAN($G$3:$G$12)</f>
         <v>119</v>
       </c>
-      <c r="M7" s="12">
-        <f>_xlfn.QUARTILE.EXC($F$3:$F$12,3)</f>
+      <c r="N7" s="12">
+        <f>_xlfn.QUARTILE.EXC($G$3:$G$12,3)</f>
         <v>120.52499999999999</v>
       </c>
-      <c r="N7" s="12">
-        <f>MAX($F$3:$F$12)</f>
+      <c r="O7" s="12">
+        <f>MAX($G$3:$G$12)</f>
         <v>122.8</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="3">
+    <row r="8" spans="1:15">
+      <c r="A8" s="11" t="str">
+        <f>C8&amp;COUNTIF($C$3:C8,C8)</f>
+        <v>Thirds4</v>
+      </c>
+      <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="9">
+      <c r="D8" s="9">
         <v>106.8</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
+        <f>VLOOKUP("One6",$A$3:$D$22,4,FALSE)</f>
         <v>115.2</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
+        <f>VLOOKUP("Thirds6",$A$3:$D$22,4,FALSE)</f>
         <v>112.4</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="3">
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="11" t="str">
+        <f>C9&amp;COUNTIF($C$3:C9,C9)</f>
+        <v>Thirds5</v>
+      </c>
+      <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="9">
+      <c r="D9" s="9">
         <v>113.7</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="9">
+        <f>VLOOKUP("One7",$A$3:$D$22,4,FALSE)</f>
         <v>108.1</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
+        <f>VLOOKUP("Thirds7",$A$3:$D$22,4,FALSE)</f>
         <v>118.1</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="3">
+    <row r="10" spans="1:15">
+      <c r="A10" s="11" t="str">
+        <f>C10&amp;COUNTIF($C$3:C10,C10)</f>
+        <v>Thirds6</v>
+      </c>
+      <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="9">
+      <c r="D10" s="9">
         <v>112.4</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8</v>
       </c>
-      <c r="F10" s="9">
+      <c r="G10" s="9">
+        <f>VLOOKUP("One8",$A$3:$D$22,4,FALSE)</f>
         <v>120</v>
       </c>
-      <c r="G10" s="9">
+      <c r="H10" s="9">
+        <f>VLOOKUP("Thirds8",$A$3:$D$22,4,FALSE)</f>
         <v>110.9</v>
       </c>
-      <c r="J10" s="12">
-        <f>MIN($G$3:$G$12)</f>
+      <c r="K10" s="12">
+        <f>MIN($H$3:$H$12)</f>
         <v>106.8</v>
       </c>
-      <c r="K10" s="12">
-        <f>_xlfn.QUARTILE.EXC($G$3:$G$12,1)</f>
+      <c r="L10" s="12">
+        <f>_xlfn.QUARTILE.EXC($H$3:$H$12,1)</f>
         <v>111.8</v>
       </c>
-      <c r="L10" s="12">
-        <f>MEDIAN($G$3:$G$12)</f>
+      <c r="M10" s="12">
+        <f>MEDIAN($H$3:$H$12)</f>
         <v>112.65</v>
       </c>
-      <c r="M10" s="12">
-        <f>_xlfn.QUARTILE.EXC($G$3:$G$12,3)</f>
+      <c r="N10" s="12">
+        <f>_xlfn.QUARTILE.EXC($H$3:$H$12,3)</f>
         <v>115.9</v>
       </c>
-      <c r="N10" s="12">
-        <f>MAX($G$3:$G$12)</f>
+      <c r="O10" s="12">
+        <f>MAX($H$3:$H$12)</f>
         <v>118.1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="3">
+    <row r="11" spans="1:15">
+      <c r="A11" s="11" t="str">
+        <f>C11&amp;COUNTIF($C$3:C11,C11)</f>
+        <v>One3</v>
+      </c>
+      <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="9">
+      <c r="D11" s="9">
         <v>118.6</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>9</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="9">
+        <f>VLOOKUP("One9",$A$3:$D$22,4,FALSE)</f>
         <v>121.8</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="9">
+        <f>VLOOKUP("Thirds9",$A$3:$D$22,4,FALSE)</f>
         <v>112.2</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="3">
+    <row r="12" spans="1:15">
+      <c r="A12" s="11" t="str">
+        <f>C12&amp;COUNTIF($C$3:C12,C12)</f>
+        <v>One4</v>
+      </c>
+      <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9">
+      <c r="D12" s="9">
         <v>109.9</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="9">
+      <c r="G12" s="9">
+        <f>VLOOKUP("One10",$A$3:$D$22,4,FALSE)</f>
         <v>119.4</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="9">
+        <f>VLOOKUP("Thirds10",$A$3:$D$22,4,FALSE)</f>
         <v>117.4</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="3">
+    <row r="13" spans="1:15">
+      <c r="A13" s="11" t="str">
+        <f>C13&amp;COUNTIF($C$3:C13,C13)</f>
+        <v>One5</v>
+      </c>
+      <c r="B13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9">
+      <c r="D13" s="9">
         <v>120.1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="3">
+    <row r="14" spans="1:15">
+      <c r="A14" s="11" t="str">
+        <f>C14&amp;COUNTIF($C$3:C14,C14)</f>
+        <v>Thirds7</v>
+      </c>
+      <c r="B14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9">
+      <c r="D14" s="9">
         <v>118.1</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="3">
+    <row r="15" spans="1:15">
+      <c r="A15" s="11" t="str">
+        <f>C15&amp;COUNTIF($C$3:C15,C15)</f>
+        <v>One6</v>
+      </c>
+      <c r="B15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="9">
+      <c r="D15" s="9">
         <v>115.2</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="3">
+    <row r="16" spans="1:15">
+      <c r="A16" s="11" t="str">
+        <f>C16&amp;COUNTIF($C$3:C16,C16)</f>
+        <v>One7</v>
+      </c>
+      <c r="B16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="9">
+      <c r="D16" s="9">
         <v>108.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3">
+    <row r="17" spans="1:4">
+      <c r="A17" s="11" t="str">
+        <f>C17&amp;COUNTIF($C$3:C17,C17)</f>
+        <v>One8</v>
+      </c>
+      <c r="B17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="9">
+      <c r="D17" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3">
+    <row r="18" spans="1:4">
+      <c r="A18" s="11" t="str">
+        <f>C18&amp;COUNTIF($C$3:C18,C18)</f>
+        <v>Thirds8</v>
+      </c>
+      <c r="B18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="9">
+      <c r="D18" s="9">
         <v>110.9</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4">
+      <c r="A19" s="11" t="str">
+        <f>C19&amp;COUNTIF($C$3:C19,C19)</f>
+        <v>One9</v>
+      </c>
+      <c r="B19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="9">
+      <c r="D19" s="9">
         <v>121.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3">
+    <row r="20" spans="1:4">
+      <c r="A20" s="11" t="str">
+        <f>C20&amp;COUNTIF($C$3:C20,C20)</f>
+        <v>Thirds9</v>
+      </c>
+      <c r="B20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="9">
+      <c r="D20" s="9">
         <v>112.2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:4">
+      <c r="A21" s="11" t="str">
+        <f>C21&amp;COUNTIF($C$3:C21,C21)</f>
+        <v>Thirds10</v>
+      </c>
+      <c r="B21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="9">
+      <c r="D21" s="9">
         <v>117.4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4">
+      <c r="A22" s="11" t="str">
+        <f>C22&amp;COUNTIF($C$3:C22,C22)</f>
+        <v>One10</v>
+      </c>
+      <c r="B22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="9">
+      <c r="D22" s="9">
         <v>119.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K8:O8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2373,12 +2487,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
@@ -2399,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9">
-        <f>'Table 3.3'!F3</f>
+        <f>'Table 3.3'!G3</f>
         <v>122.8</v>
       </c>
       <c r="C3" s="8">
@@ -2416,7 +2530,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9">
-        <f>'Table 3.3'!F4</f>
+        <f>'Table 3.3'!G4</f>
         <v>112.6</v>
       </c>
       <c r="C4" s="8">
@@ -2433,7 +2547,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9">
-        <f>'Table 3.3'!F5</f>
+        <f>'Table 3.3'!G5</f>
         <v>118.6</v>
       </c>
       <c r="C5" s="8">
@@ -2450,7 +2564,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9">
-        <f>'Table 3.3'!F6</f>
+        <f>'Table 3.3'!G6</f>
         <v>109.9</v>
       </c>
       <c r="C6" s="8">
@@ -2467,7 +2581,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9">
-        <f>'Table 3.3'!F7</f>
+        <f>'Table 3.3'!G7</f>
         <v>120.1</v>
       </c>
       <c r="C7" s="8">
@@ -2484,7 +2598,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9">
-        <f>'Table 3.3'!F8</f>
+        <f>'Table 3.3'!G8</f>
         <v>115.2</v>
       </c>
       <c r="C8" s="8">
@@ -2501,7 +2615,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9">
-        <f>'Table 3.3'!F9</f>
+        <f>'Table 3.3'!G9</f>
         <v>108.1</v>
       </c>
       <c r="C9" s="8">
@@ -2518,7 +2632,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9">
-        <f>'Table 3.3'!F10</f>
+        <f>'Table 3.3'!G10</f>
         <v>120</v>
       </c>
       <c r="C10" s="8">
@@ -2535,7 +2649,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9">
-        <f>'Table 3.3'!F11</f>
+        <f>'Table 3.3'!G11</f>
         <v>121.8</v>
       </c>
       <c r="C11" s="8">
@@ -2552,7 +2666,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9">
-        <f>'Table 3.3'!F12</f>
+        <f>'Table 3.3'!G12</f>
         <v>119.4</v>
       </c>
       <c r="C12" s="8">
@@ -2600,12 +2714,12 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
@@ -2626,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="9">
-        <f>'Table 3.3'!G3</f>
+        <f>'Table 3.3'!H3</f>
         <v>112.1</v>
       </c>
       <c r="C17" s="8">
@@ -2643,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="9">
-        <f>'Table 3.3'!G4</f>
+        <f>'Table 3.3'!H4</f>
         <v>112.9</v>
       </c>
       <c r="C18" s="8">
@@ -2660,7 +2774,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="9">
-        <f>'Table 3.3'!G5</f>
+        <f>'Table 3.3'!H5</f>
         <v>115.4</v>
       </c>
       <c r="C19" s="8">
@@ -2677,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="9">
-        <f>'Table 3.3'!G6</f>
+        <f>'Table 3.3'!H6</f>
         <v>106.8</v>
       </c>
       <c r="C20" s="8">
@@ -2694,7 +2808,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="9">
-        <f>'Table 3.3'!G7</f>
+        <f>'Table 3.3'!H7</f>
         <v>113.7</v>
       </c>
       <c r="C21" s="8">
@@ -2711,7 +2825,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="9">
-        <f>'Table 3.3'!G8</f>
+        <f>'Table 3.3'!H8</f>
         <v>112.4</v>
       </c>
       <c r="C22" s="8">
@@ -2728,7 +2842,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="9">
-        <f>'Table 3.3'!G9</f>
+        <f>'Table 3.3'!H9</f>
         <v>118.1</v>
       </c>
       <c r="C23" s="8">
@@ -2745,7 +2859,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="9">
-        <f>'Table 3.3'!G10</f>
+        <f>'Table 3.3'!H10</f>
         <v>110.9</v>
       </c>
       <c r="C24" s="8">
@@ -2762,7 +2876,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="9">
-        <f>'Table 3.3'!G11</f>
+        <f>'Table 3.3'!H11</f>
         <v>112.2</v>
       </c>
       <c r="C25" s="8">
@@ -2779,7 +2893,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="9">
-        <f>'Table 3.3'!G12</f>
+        <f>'Table 3.3'!H12</f>
         <v>117.4</v>
       </c>
       <c r="C26" s="8">
@@ -2810,7 +2924,7 @@
         <v>-9.9475983006414026E-14</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" ref="C27:D27" si="4">SUM(D17:D26)</f>
+        <f t="shared" ref="D27" si="4">SUM(D17:D26)</f>
         <v>95.929000000000045</v>
       </c>
       <c r="E27" s="13">

--- a/Lab3/random_number_generator.xlsx
+++ b/Lab3/random_number_generator.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D03949C-C867-4EEA-98F6-048382749431}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0341C573-02C1-4127-B7C6-82053AE6C91B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,9 +13,57 @@
     <sheet name="Table 3.4,3.5" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Table 3.3'!$D$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Table 3.3'!$D$3:$D$22</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Table 3.3'!$O$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Table 3.3'!$O$3:$O$7</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Table 3.3'!$P$16:$P$20</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Table 3.3'!$O$2</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Table 3.3'!$O$3:$O$7</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Table 3.3'!$P$2</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Table 3.3'!$P$3:$P$7</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Table 3.3'!$O$15</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Table 3.3'!$O$16:$O$20</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Table 3.3'!$P$15</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Table 3.3'!$P$16:$P$20</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Table 3.3'!$O$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Table 3.3'!$P$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Table 3.3'!$O$3:$O$7</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Table 3.3'!$P$2</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Table 3.3'!$P$3:$P$7</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Table 3.3'!$O$2</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Table 3.3'!$O$3:$O$7</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Table 3.3'!$P$2</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Table 3.3'!$P$3:$P$7</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Table 3.3'!$O$2</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Table 3.3'!$O$3:$O$7</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Table 3.3'!$P$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Table 3.3'!$P$3:$P$7</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Table 3.3'!$P$3:$P$7</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Table 3.3'!$O$15</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Table 3.3'!$O$16:$O$20</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Table 3.3'!$P$15</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Table 3.3'!$P$16:$P$20</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Table 3.3'!$O$2</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Table 3.3'!$O$3:$O$7</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Table 3.3'!$P$2</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Table 3.3'!$P$3:$P$7</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'Table 3.3'!$O$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Table 3.3'!$C$3:$C$22</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'Table 3.3'!$O$3:$O$7</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'Table 3.3'!$P$2</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'Table 3.3'!$P$3:$P$7</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'Table 3.3'!$O$2</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'Table 3.3'!$O$3:$O$7</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'Table 3.3'!$P$2</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'Table 3.3'!$P$3:$P$7</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'Table 3.3'!$O$15</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'Table 3.3'!$O$16:$O$20</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'Table 3.3'!$P$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Table 3.3'!$D$2</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'Table 3.3'!$P$16:$P$20</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Table 3.3'!$D$3:$D$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Table 3.3'!$O$15</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Table 3.3'!$O$16:$O$20</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Table 3.3'!$P$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="37">
   <si>
     <t>Variable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +150,6 @@
   </si>
   <si>
     <t>Weight(g)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Five Point Summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -214,6 +258,35 @@
   </si>
   <si>
     <t>One</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thirds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 2: Order data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 1: Group data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>One</t>
@@ -221,29 +294,18 @@
   </si>
   <si>
     <t>Thirds</t>
-  </si>
-  <si>
-    <t>Thirds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Observation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thrds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>median</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 3:Five Point Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measurement Cup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 2: Ordered data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +357,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,8 +376,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -338,11 +406,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,9 +434,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -377,9 +451,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,6 +461,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -413,131 +502,120 @@
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
-        <cx:txData>
-          <cx:v>Side-by-Side Boxplot</cx:v>
-        </cx:txData>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Side-by-Side Boxplot</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
       </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-            </a:rPr>
-            <a:t>Side-by-Side Boxplot</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{A2A5EE9D-108F-4A2E-946A-0DB63C6A731A}">
+        <cx:series layoutId="boxWhisker" uniqueId="{B397CAB0-6A35-484C-A4C6-4B75700B8150}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>Weight(g)</cx:v>
+              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:v>One</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:dataLabels pos="r">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="0" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A7F03B88-27B6-4AF9-90F9-9A79F8E5DE90}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:v>Thirds</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="r">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="0" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1.5"/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Measurement Cup</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:txPr>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1400"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                </a:rPr>
-                <a:t>Measurement Cup</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
-        </cx:title>
-        <cx:majorGridlines/>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1.10000002"/>
         <cx:tickLabels/>
       </cx:axis>
-      <cx:axis id="1" hidden="1">
-        <cx:valScaling/>
+      <cx:axis id="1">
+        <cx:valScaling min="100"/>
         <cx:title>
           <cx:tx>
             <cx:rich>
               <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1100">
+                <a:pPr rtl="0"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:effectLst/>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>Weight(g)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="700">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
                   </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
@@ -548,7 +626,13 @@
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
   </cx:chart>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
 </cx:chartSpace>
 </file>
 
@@ -1110,25 +1194,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>577215</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>74294</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="图表 1">
+            <xdr:cNvPr id="3" name="图表 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300898FC-668A-4265-A215-0F93CC5D03BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC1C00D-F3BD-4EDF-99A1-57112A97315C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1155,8 +1239,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3769995" y="2474594"/>
-              <a:ext cx="5385435" cy="3007996"/>
+              <a:off x="4608194" y="2486025"/>
+              <a:ext cx="5488306" cy="2577465"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1455,7 +1539,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1"/>
@@ -1503,15 +1587,15 @@
       </c>
       <c r="C3" s="5">
         <f ca="1">RAND()*100</f>
-        <v>33.191492291802639</v>
+        <v>87.502857753427961</v>
       </c>
       <c r="D3" s="3" t="str">
         <f ca="1">VLOOKUP(E3,$A$3:$B$22,2,FALSE)</f>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E3" s="3">
         <f ca="1">RANK(C3,$C$3:$C$22)</f>
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.3">
@@ -1523,7 +1607,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C22" ca="1" si="0">RAND()*100</f>
-        <v>60.390966618795105</v>
+        <v>52.975926731118605</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D22" ca="1" si="1">VLOOKUP(E4,$A$3:$B$22,2,FALSE)</f>
@@ -1531,7 +1615,7 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E22" ca="1" si="2">RANK(C4,$C$3:$C$22)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.3">
@@ -1543,15 +1627,15 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>72.828550981821635</v>
+        <v>44.915346359563948</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.3">
@@ -1563,7 +1647,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>17.915803151437803</v>
+        <v>25.105181714410087</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1571,7 +1655,7 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.3">
@@ -1583,7 +1667,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>61.040982824035808</v>
+        <v>83.044729392480633</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1591,7 +1675,7 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.3">
@@ -1603,7 +1687,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>49.603251289192777</v>
+        <v>40.013537283299115</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1611,7 +1695,7 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.3">
@@ -1623,7 +1707,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>48.86169395116616</v>
+        <v>34.348931873023261</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1631,7 +1715,7 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.3">
@@ -1643,7 +1727,7 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>63.976283206642691</v>
+        <v>79.857370507880475</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1651,7 +1735,7 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.3">
@@ -1663,7 +1747,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>35.323510519014334</v>
+        <v>20.813491710532606</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1671,7 +1755,7 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.3">
@@ -1683,7 +1767,7 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>26.119948728094766</v>
+        <v>16.655650592643813</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1691,7 +1775,7 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.3">
@@ -1703,7 +1787,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>78.685621754788698</v>
+        <v>64.48800530521946</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1711,7 +1795,7 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.3">
@@ -1723,15 +1807,15 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>64.537930561776577</v>
+        <v>21.845410695722588</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.3">
@@ -1743,15 +1827,15 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>92.192212193884714</v>
+        <v>32.376800649076017</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.3">
@@ -1763,7 +1847,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>32.735573700922394</v>
+        <v>0.79002932551476279</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1771,7 +1855,7 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.3">
@@ -1783,15 +1867,15 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>24.664347486068305</v>
+        <v>74.730687253306399</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.3">
@@ -1803,15 +1887,15 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>40.792927998522487</v>
+        <v>69.89076240610035</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.3">
@@ -1823,15 +1907,15 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>76.822950093819927</v>
+        <v>3.7709693470596162</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.3">
@@ -1843,15 +1927,15 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.635176004290427</v>
+        <v>95.873528684115314</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.3">
@@ -1863,7 +1947,7 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>64.683088085076378</v>
+        <v>55.924698033480844</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1871,7 +1955,7 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.3">
@@ -1883,7 +1967,7 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>56.582225988147606</v>
+        <v>83.666054626803358</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1891,7 +1975,7 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1906,565 +1990,806 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3A3CA-9568-4A2A-887D-B2126F4FAA24}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="7"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
     <col min="2" max="2" width="13.546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.1484375" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="5" max="5" width="1.94921875" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="2"/>
+    <col min="8" max="8" width="8.796875" style="13"/>
+    <col min="9" max="9" width="8.796875" style="2"/>
+    <col min="10" max="10" width="1.69921875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.796875" style="2"/>
+    <col min="13" max="13" width="9.1484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.796875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="F1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="11" t="str">
-        <f>C3&amp;COUNTIF($C$3:C3,C3)</f>
+        <v>24</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="10" t="str">
+        <f ca="1">C3&amp;COUNTIF($C$3:C3,C3)</f>
         <v>One1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="9">
-        <v>122.8</v>
+      <c r="C3" s="19" t="str">
+        <f ca="1">'Table 3.2'!D3</f>
+        <v>One</v>
+      </c>
+      <c r="D3" s="18">
+        <f ca="1">_xlfn.NORM.INV(RAND(),140,15)</f>
+        <v>109.73654722579415</v>
       </c>
       <c r="F3" s="3">
+        <f ca="1">RANK(G3,G$3:G$12,1)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="9">
-        <f>VLOOKUP("One1",$A$3:$D$22,4,FALSE)</f>
-        <v>122.8</v>
-      </c>
-      <c r="H3" s="9">
-        <f>VLOOKUP("Thirds1",$A$3:$D$22,4,FALSE)</f>
-        <v>112.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="11" t="str">
-        <f>C4&amp;COUNTIF($C$3:C4,C4)</f>
+      <c r="G3" s="8">
+        <f ca="1">VLOOKUP("One1",$A$3:$D$22,4,FALSE)</f>
+        <v>109.73654722579415</v>
+      </c>
+      <c r="H3" s="14">
+        <f ca="1">RANK(I3,I$3:I$12,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="8">
+        <f ca="1">VLOOKUP("Thirds1",$A$3:$D$22,4,FALSE)</f>
+        <v>120.64282177355855</v>
+      </c>
+      <c r="K3" s="14">
+        <v>1</v>
+      </c>
+      <c r="L3" s="20">
+        <f ca="1">VLOOKUP(K3,F$3:G$12,2,FALSE)</f>
+        <v>109.73654722579415</v>
+      </c>
+      <c r="M3" s="20">
+        <f ca="1">VLOOKUP(K3,H$3:I$12,2,FALSE)</f>
+        <v>114.49045048580305</v>
+      </c>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="10" t="str">
+        <f ca="1">C4&amp;COUNTIF($C$3:C4,C4)</f>
+        <v>One2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="str">
+        <f ca="1">'Table 3.2'!D4</f>
+        <v>One</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="shared" ref="D4:D22" ca="1" si="0">_xlfn.NORM.INV(RAND(),140,15)</f>
+        <v>136.53236366861151</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:F12" ca="1" si="1">RANK(G4,G$3:G$12,1)</f>
+        <v>7</v>
+      </c>
+      <c r="G4" s="8">
+        <f ca="1">VLOOKUP("One2",$A$3:$D$22,4,FALSE)</f>
+        <v>136.53236366861151</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H12" ca="1" si="2">RANK(I4,I$3:I$12,1)</f>
+        <v>9</v>
+      </c>
+      <c r="I4" s="8">
+        <f ca="1">VLOOKUP("Thirds2",$A$3:$D$22,4,FALSE)</f>
+        <v>144.78392517125459</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2</v>
+      </c>
+      <c r="L4" s="20">
+        <f t="shared" ref="L4:L12" ca="1" si="3">VLOOKUP(K4,F$3:G$12,2,FALSE)</f>
+        <v>119.35651993398525</v>
+      </c>
+      <c r="M4" s="20">
+        <f t="shared" ref="M4:M12" ca="1" si="4">VLOOKUP(K4,H$3:I$12,2,FALSE)</f>
+        <v>119.6371312623542</v>
+      </c>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="10" t="str">
+        <f ca="1">C5&amp;COUNTIF($C$3:C5,C5)</f>
         <v>Thirds1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="str">
+        <f ca="1">'Table 3.2'!D5</f>
+        <v>Thirds</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>120.64282177355855</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
+        <f ca="1">VLOOKUP("One3",$A$3:$D$22,4,FALSE)</f>
+        <v>129.89209510496994</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I5" s="8">
+        <f ca="1">VLOOKUP("Thirds3",$A$3:$D$22,4,FALSE)</f>
+        <v>142.02320570970278</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14">
+        <v>3</v>
+      </c>
+      <c r="L5" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>128.28052833736754</v>
+      </c>
+      <c r="M5" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>120.64282177355855</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="10" t="str">
+        <f ca="1">C6&amp;COUNTIF($C$3:C6,C6)</f>
+        <v>Thirds2</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="str">
+        <f ca="1">'Table 3.2'!D6</f>
+        <v>Thirds</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>144.78392517125459</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
+        <f ca="1">VLOOKUP("One4",$A$3:$D$22,4,FALSE)</f>
+        <v>134.89020946672338</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I6" s="8">
+        <f ca="1">VLOOKUP("Thirds4",$A$3:$D$22,4,FALSE)</f>
+        <v>139.87552018001847</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14">
+        <v>4</v>
+      </c>
+      <c r="L6" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>129.89209510496994</v>
+      </c>
+      <c r="M6" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>129.12030826583771</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="10" t="str">
+        <f ca="1">C7&amp;COUNTIF($C$3:C7,C7)</f>
+        <v>One3</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="19" t="str">
+        <f ca="1">'Table 3.2'!D7</f>
+        <v>One</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>129.89209510496994</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
+        <f ca="1">VLOOKUP("One5",$A$3:$D$22,4,FALSE)</f>
+        <v>128.28052833736754</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="8">
+        <f ca="1">VLOOKUP("Thirds5",$A$3:$D$22,4,FALSE)</f>
+        <v>130.02122143784817</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14">
+        <v>5</v>
+      </c>
+      <c r="L7" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>134.89020946672338</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>130.02122143784817</v>
+      </c>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="10" t="str">
+        <f ca="1">C8&amp;COUNTIF($C$3:C8,C8)</f>
+        <v>Thirds3</v>
+      </c>
+      <c r="B8" s="10">
+        <v>6</v>
+      </c>
+      <c r="C8" s="19" t="str">
+        <f ca="1">'Table 3.2'!D8</f>
+        <v>Thirds</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>142.02320570970278</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="8">
+        <f ca="1">VLOOKUP("One6",$A$3:$D$22,4,FALSE)</f>
+        <v>135.23792716609921</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I8" s="8">
+        <f ca="1">VLOOKUP("Thirds6",$A$3:$D$22,4,FALSE)</f>
+        <v>130.10329187054319</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14">
+        <v>6</v>
+      </c>
+      <c r="L8" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>135.23792716609921</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>130.10329187054319</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="10" t="str">
+        <f ca="1">C9&amp;COUNTIF($C$3:C9,C9)</f>
+        <v>Thirds4</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19" t="str">
+        <f ca="1">'Table 3.2'!D9</f>
+        <v>Thirds</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>139.87552018001847</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G9" s="8">
+        <f ca="1">VLOOKUP("One7",$A$3:$D$22,4,FALSE)</f>
+        <v>156.99231287956795</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="9">
-        <v>112.1</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="I9" s="8">
+        <f ca="1">VLOOKUP("Thirds7",$A$3:$D$22,4,FALSE)</f>
+        <v>119.6371312623542</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14">
+        <v>7</v>
+      </c>
+      <c r="L9" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>136.53236366861151</v>
+      </c>
+      <c r="M9" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>139.87552018001847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="10" t="str">
+        <f ca="1">C10&amp;COUNTIF($C$3:C10,C10)</f>
+        <v>One4</v>
+      </c>
+      <c r="B10" s="10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="19" t="str">
+        <f ca="1">'Table 3.2'!D10</f>
+        <v>One</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>134.89020946672338</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G10" s="8">
+        <f ca="1">VLOOKUP("One8",$A$3:$D$22,4,FALSE)</f>
+        <v>157.89094909705176</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <f ca="1">VLOOKUP("Thirds8",$A$3:$D$22,4,FALSE)</f>
+        <v>114.49045048580305</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14">
+        <v>8</v>
+      </c>
+      <c r="L10" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>145.92129574651111</v>
+      </c>
+      <c r="M10" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>142.02320570970278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="10" t="str">
+        <f ca="1">C11&amp;COUNTIF($C$3:C11,C11)</f>
+        <v>Thirds5</v>
+      </c>
+      <c r="B11" s="10">
+        <v>9</v>
+      </c>
+      <c r="C11" s="19" t="str">
+        <f ca="1">'Table 3.2'!D11</f>
+        <v>Thirds</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>130.02122143784817</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="G4" s="9">
-        <f>VLOOKUP("One2",$A$3:$D$22,4,FALSE)</f>
-        <v>112.6</v>
-      </c>
-      <c r="H4" s="9">
-        <f>VLOOKUP("Thirds2",$A$3:$D$22,4,FALSE)</f>
-        <v>112.9</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="G11" s="8">
+        <f ca="1">VLOOKUP("One9",$A$3:$D$22,4,FALSE)</f>
+        <v>119.35651993398525</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I11" s="8">
+        <f ca="1">VLOOKUP("Thirds9",$A$3:$D$22,4,FALSE)</f>
+        <v>129.12030826583771</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14">
+        <v>9</v>
+      </c>
+      <c r="L11" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>156.99231287956795</v>
+      </c>
+      <c r="M11" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>144.78392517125459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="10" t="str">
+        <f ca="1">C12&amp;COUNTIF($C$3:C12,C12)</f>
+        <v>Thirds6</v>
+      </c>
+      <c r="B12" s="10">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19" t="str">
+        <f ca="1">'Table 3.2'!D12</f>
+        <v>Thirds</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>130.10329187054319</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G12" s="8">
+        <f ca="1">VLOOKUP("One10",$A$3:$D$22,4,FALSE)</f>
+        <v>145.92129574651111</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I12" s="8">
+        <f ca="1">VLOOKUP("Thirds10",$A$3:$D$22,4,FALSE)</f>
+        <v>147.78997936572756</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14">
+        <v>10</v>
+      </c>
+      <c r="L12" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>157.89094909705176</v>
+      </c>
+      <c r="M12" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>147.78997936572756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="10" t="str">
+        <f ca="1">C13&amp;COUNTIF($C$3:C13,C13)</f>
+        <v>One5</v>
+      </c>
+      <c r="B13" s="10">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19" t="str">
+        <f ca="1">'Table 3.2'!D13</f>
+        <v>One</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>128.28052833736754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="10" t="str">
+        <f ca="1">C14&amp;COUNTIF($C$3:C14,C14)</f>
+        <v>Thirds7</v>
+      </c>
+      <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="11" t="str">
-        <f>C5&amp;COUNTIF($C$3:C5,C5)</f>
-        <v>Thirds2</v>
-      </c>
-      <c r="B5" s="11">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="9">
-        <v>112.9</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="9">
-        <f>VLOOKUP("One3",$A$3:$D$22,4,FALSE)</f>
-        <v>118.6</v>
-      </c>
-      <c r="H5" s="9">
-        <f>VLOOKUP("Thirds3",$A$3:$D$22,4,FALSE)</f>
-        <v>115.4</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="11" t="str">
-        <f>C6&amp;COUNTIF($C$3:C6,C6)</f>
-        <v>One2</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="9">
-        <v>112.6</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4</v>
-      </c>
-      <c r="G6" s="9">
-        <f>VLOOKUP("One4",$A$3:$D$22,4,FALSE)</f>
-        <v>109.9</v>
-      </c>
-      <c r="H6" s="9">
-        <f>VLOOKUP("Thirds4",$A$3:$D$22,4,FALSE)</f>
-        <v>106.8</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="C14" s="19" t="str">
+        <f ca="1">'Table 3.2'!D14</f>
+        <v>Thirds</v>
+      </c>
+      <c r="D14" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>119.6371312623542</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="10" t="str">
+        <f ca="1">C15&amp;COUNTIF($C$3:C15,C15)</f>
+        <v>Thirds8</v>
+      </c>
+      <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="C15" s="19" t="str">
+        <f ca="1">'Table 3.2'!D15</f>
+        <v>Thirds</v>
+      </c>
+      <c r="D15" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>114.49045048580305</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="10" t="str">
+        <f ca="1">C16&amp;COUNTIF($C$3:C16,C16)</f>
+        <v>Thirds9</v>
+      </c>
+      <c r="B16" s="10">
         <v>14</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="C16" s="19" t="str">
+        <f ca="1">'Table 3.2'!D16</f>
+        <v>Thirds</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>129.12030826583771</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="17">
+        <f ca="1">L3</f>
+        <v>109.73654722579415</v>
+      </c>
+      <c r="P16" s="17">
+        <f ca="1">M3</f>
+        <v>114.49045048580305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="10" t="str">
+        <f ca="1">C17&amp;COUNTIF($C$3:C17,C17)</f>
+        <v>One6</v>
+      </c>
+      <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="C17" s="19" t="str">
+        <f ca="1">'Table 3.2'!D17</f>
+        <v>One</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>135.23792716609921</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="17">
+        <f ca="1">L5</f>
+        <v>128.28052833736754</v>
+      </c>
+      <c r="P17" s="17">
+        <f ca="1">M5</f>
+        <v>120.64282177355855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="10" t="str">
+        <f ca="1">C18&amp;COUNTIF($C$3:C18,C18)</f>
+        <v>One7</v>
+      </c>
+      <c r="B18" s="10">
         <v>16</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="C18" s="19" t="str">
+        <f ca="1">'Table 3.2'!D18</f>
+        <v>One</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>156.99231287956795</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="17">
+        <f ca="1">AVERAGE(L7:L8)</f>
+        <v>135.06406831641129</v>
+      </c>
+      <c r="P18" s="17">
+        <f ca="1">AVERAGE(M7:M8)</f>
+        <v>130.06225665419566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="10" t="str">
+        <f ca="1">C19&amp;COUNTIF($C$3:C19,C19)</f>
+        <v>Thirds10</v>
+      </c>
+      <c r="B19" s="10">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="11" t="str">
-        <f>C7&amp;COUNTIF($C$3:C7,C7)</f>
-        <v>Thirds3</v>
-      </c>
-      <c r="B7" s="11">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="9">
-        <v>115.4</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <f>VLOOKUP("One5",$A$3:$D$22,4,FALSE)</f>
-        <v>120.1</v>
-      </c>
-      <c r="H7" s="9">
-        <f>VLOOKUP("Thirds5",$A$3:$D$22,4,FALSE)</f>
-        <v>113.7</v>
-      </c>
-      <c r="K7" s="12">
-        <f>MIN($G$3:$G$12)</f>
-        <v>108.1</v>
-      </c>
-      <c r="L7" s="12">
-        <f>_xlfn.QUARTILE.EXC($G$3:$G$12,1)</f>
-        <v>111.925</v>
-      </c>
-      <c r="M7" s="12">
-        <f>MEDIAN($G$3:$G$12)</f>
-        <v>119</v>
-      </c>
-      <c r="N7" s="12">
-        <f>_xlfn.QUARTILE.EXC($G$3:$G$12,3)</f>
-        <v>120.52499999999999</v>
-      </c>
-      <c r="O7" s="12">
-        <f>MAX($G$3:$G$12)</f>
-        <v>122.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="11" t="str">
-        <f>C8&amp;COUNTIF($C$3:C8,C8)</f>
-        <v>Thirds4</v>
-      </c>
-      <c r="B8" s="11">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="9">
-        <v>106.8</v>
-      </c>
-      <c r="F8" s="3">
-        <v>6</v>
-      </c>
-      <c r="G8" s="9">
-        <f>VLOOKUP("One6",$A$3:$D$22,4,FALSE)</f>
-        <v>115.2</v>
-      </c>
-      <c r="H8" s="9">
-        <f>VLOOKUP("Thirds6",$A$3:$D$22,4,FALSE)</f>
-        <v>112.4</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="11" t="str">
-        <f>C9&amp;COUNTIF($C$3:C9,C9)</f>
-        <v>Thirds5</v>
-      </c>
-      <c r="B9" s="11">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="9">
-        <v>113.7</v>
-      </c>
-      <c r="F9" s="3">
-        <v>7</v>
-      </c>
-      <c r="G9" s="9">
-        <f>VLOOKUP("One7",$A$3:$D$22,4,FALSE)</f>
-        <v>108.1</v>
-      </c>
-      <c r="H9" s="9">
-        <f>VLOOKUP("Thirds7",$A$3:$D$22,4,FALSE)</f>
-        <v>118.1</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="C19" s="19" t="str">
+        <f ca="1">'Table 3.2'!D19</f>
+        <v>Thirds</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>147.78997936572756</v>
+      </c>
+      <c r="N19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O19" s="17">
+        <f ca="1">L10</f>
+        <v>145.92129574651111</v>
+      </c>
+      <c r="P19" s="17">
+        <f ca="1">M10</f>
+        <v>142.02320570970278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="10" t="str">
+        <f ca="1">C20&amp;COUNTIF($C$3:C20,C20)</f>
+        <v>One8</v>
+      </c>
+      <c r="B20" s="10">
+        <v>18</v>
+      </c>
+      <c r="C20" s="19" t="str">
+        <f ca="1">'Table 3.2'!D20</f>
+        <v>One</v>
+      </c>
+      <c r="D20" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>157.89094909705176</v>
+      </c>
+      <c r="N20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="11" t="str">
-        <f>C10&amp;COUNTIF($C$3:C10,C10)</f>
-        <v>Thirds6</v>
-      </c>
-      <c r="B10" s="11">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="9">
-        <v>112.4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>8</v>
-      </c>
-      <c r="G10" s="9">
-        <f>VLOOKUP("One8",$A$3:$D$22,4,FALSE)</f>
-        <v>120</v>
-      </c>
-      <c r="H10" s="9">
-        <f>VLOOKUP("Thirds8",$A$3:$D$22,4,FALSE)</f>
-        <v>110.9</v>
-      </c>
-      <c r="K10" s="12">
-        <f>MIN($H$3:$H$12)</f>
-        <v>106.8</v>
-      </c>
-      <c r="L10" s="12">
-        <f>_xlfn.QUARTILE.EXC($H$3:$H$12,1)</f>
-        <v>111.8</v>
-      </c>
-      <c r="M10" s="12">
-        <f>MEDIAN($H$3:$H$12)</f>
-        <v>112.65</v>
-      </c>
-      <c r="N10" s="12">
-        <f>_xlfn.QUARTILE.EXC($H$3:$H$12,3)</f>
-        <v>115.9</v>
-      </c>
-      <c r="O10" s="12">
-        <f>MAX($H$3:$H$12)</f>
-        <v>118.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="11" t="str">
-        <f>C11&amp;COUNTIF($C$3:C11,C11)</f>
-        <v>One3</v>
-      </c>
-      <c r="B11" s="11">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="9">
-        <v>118.6</v>
-      </c>
-      <c r="F11" s="3">
-        <v>9</v>
-      </c>
-      <c r="G11" s="9">
-        <f>VLOOKUP("One9",$A$3:$D$22,4,FALSE)</f>
-        <v>121.8</v>
-      </c>
-      <c r="H11" s="9">
-        <f>VLOOKUP("Thirds9",$A$3:$D$22,4,FALSE)</f>
-        <v>112.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="11" t="str">
-        <f>C12&amp;COUNTIF($C$3:C12,C12)</f>
-        <v>One4</v>
-      </c>
-      <c r="B12" s="11">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="9">
-        <v>109.9</v>
-      </c>
-      <c r="F12" s="3">
-        <v>10</v>
-      </c>
-      <c r="G12" s="9">
-        <f>VLOOKUP("One10",$A$3:$D$22,4,FALSE)</f>
-        <v>119.4</v>
-      </c>
-      <c r="H12" s="9">
-        <f>VLOOKUP("Thirds10",$A$3:$D$22,4,FALSE)</f>
-        <v>117.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="11" t="str">
-        <f>C13&amp;COUNTIF($C$3:C13,C13)</f>
-        <v>One5</v>
-      </c>
-      <c r="B13" s="11">
-        <v>11</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="9">
-        <v>120.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="11" t="str">
-        <f>C14&amp;COUNTIF($C$3:C14,C14)</f>
-        <v>Thirds7</v>
-      </c>
-      <c r="B14" s="11">
-        <v>12</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="9">
-        <v>118.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="11" t="str">
-        <f>C15&amp;COUNTIF($C$3:C15,C15)</f>
-        <v>One6</v>
-      </c>
-      <c r="B15" s="11">
-        <v>13</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="9">
-        <v>115.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="11" t="str">
-        <f>C16&amp;COUNTIF($C$3:C16,C16)</f>
-        <v>One7</v>
-      </c>
-      <c r="B16" s="11">
-        <v>14</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="9">
-        <v>108.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="11" t="str">
-        <f>C17&amp;COUNTIF($C$3:C17,C17)</f>
-        <v>One8</v>
-      </c>
-      <c r="B17" s="11">
-        <v>15</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="11" t="str">
-        <f>C18&amp;COUNTIF($C$3:C18,C18)</f>
-        <v>Thirds8</v>
-      </c>
-      <c r="B18" s="11">
-        <v>16</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="9">
-        <v>110.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="11" t="str">
-        <f>C19&amp;COUNTIF($C$3:C19,C19)</f>
+      <c r="O20" s="17">
+        <f ca="1">L12</f>
+        <v>157.89094909705176</v>
+      </c>
+      <c r="P20" s="17">
+        <f ca="1">M12</f>
+        <v>147.78997936572756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="10" t="str">
+        <f ca="1">C21&amp;COUNTIF($C$3:C21,C21)</f>
         <v>One9</v>
       </c>
-      <c r="B19" s="11">
-        <v>17</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="9">
-        <v>121.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="11" t="str">
-        <f>C20&amp;COUNTIF($C$3:C20,C20)</f>
-        <v>Thirds9</v>
-      </c>
-      <c r="B20" s="11">
-        <v>18</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="9">
-        <v>112.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="11" t="str">
-        <f>C21&amp;COUNTIF($C$3:C21,C21)</f>
-        <v>Thirds10</v>
-      </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="9">
-        <v>117.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="11" t="str">
-        <f>C22&amp;COUNTIF($C$3:C22,C22)</f>
+      <c r="C21" s="19" t="str">
+        <f ca="1">'Table 3.2'!D21</f>
+        <v>One</v>
+      </c>
+      <c r="D21" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>119.35651993398525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="10" t="str">
+        <f ca="1">C22&amp;COUNTIF($C$3:C22,C22)</f>
         <v>One10</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>20</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="9">
-        <v>119.4</v>
+      <c r="C22" s="19" t="str">
+        <f ca="1">'Table 3.2'!D22</f>
+        <v>One</v>
+      </c>
+      <c r="D22" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>145.92129574651111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G3:G12" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2474,7 +2799,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
@@ -2488,7 +2813,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -2499,223 +2824,223 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
-        <f>'Table 3.3'!G3</f>
-        <v>122.8</v>
-      </c>
-      <c r="C3" s="8">
-        <f>B3-AVERAGE($B$3:$B$12)</f>
-        <v>5.9499999999999744</v>
-      </c>
-      <c r="D3" s="8">
-        <f>C3^2</f>
-        <v>35.402499999999698</v>
+      <c r="B3" s="8">
+        <f ca="1">'Table 3.3'!L3</f>
+        <v>109.73654722579415</v>
+      </c>
+      <c r="C3" s="7">
+        <f ca="1">B3-$F$13</f>
+        <v>-25.736527636874015</v>
+      </c>
+      <c r="D3" s="7">
+        <f ca="1">C3^2</f>
+        <v>662.36885480358001</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
-        <f>'Table 3.3'!G4</f>
-        <v>112.6</v>
-      </c>
-      <c r="C4" s="8">
-        <f t="shared" ref="C4:C12" si="0">B4-AVERAGE($B$3:$B$12)</f>
-        <v>-4.2500000000000284</v>
-      </c>
-      <c r="D4" s="8">
-        <f t="shared" ref="D4:D12" si="1">C4^2</f>
-        <v>18.062500000000242</v>
+      <c r="B4" s="8">
+        <f ca="1">'Table 3.3'!L4</f>
+        <v>119.35651993398525</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C12" ca="1" si="0">B4-$F$13</f>
+        <v>-16.116554928682916</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D12" ca="1" si="1">C4^2</f>
+        <v>259.74334276925362</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <f>'Table 3.3'!G5</f>
-        <v>118.6</v>
-      </c>
-      <c r="C5" s="8">
-        <f t="shared" si="0"/>
-        <v>1.7499999999999716</v>
-      </c>
-      <c r="D5" s="8">
-        <f t="shared" si="1"/>
-        <v>3.0624999999999005</v>
+      <c r="B5" s="8">
+        <f ca="1">'Table 3.3'!L5</f>
+        <v>128.28052833736754</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.192546525300628</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>51.732725518614139</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
-        <f>'Table 3.3'!G6</f>
-        <v>109.9</v>
-      </c>
-      <c r="C6" s="8">
-        <f t="shared" si="0"/>
-        <v>-6.9500000000000171</v>
-      </c>
-      <c r="D6" s="8">
-        <f t="shared" si="1"/>
-        <v>48.302500000000236</v>
+      <c r="B6" s="8">
+        <f ca="1">'Table 3.3'!L6</f>
+        <v>129.89209510496994</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.5809797576982305</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>31.147335055837399</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
-        <f>'Table 3.3'!G7</f>
-        <v>120.1</v>
-      </c>
-      <c r="C7" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2499999999999716</v>
-      </c>
-      <c r="D7" s="8">
-        <f t="shared" si="1"/>
-        <v>10.562499999999815</v>
+      <c r="B7" s="8">
+        <f ca="1">'Table 3.3'!L7</f>
+        <v>134.89020946672338</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.58286539594479336</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33973206978988074</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
-        <f>'Table 3.3'!G8</f>
-        <v>115.2</v>
-      </c>
-      <c r="C8" s="8">
-        <f t="shared" si="0"/>
-        <v>-1.6500000000000199</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" si="1"/>
-        <v>2.7225000000000659</v>
+      <c r="B8" s="8">
+        <f ca="1">'Table 3.3'!L8</f>
+        <v>135.23792716609921</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.23514769656895851</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.529443920168698E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
-        <f>'Table 3.3'!G9</f>
-        <v>108.1</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>-8.7500000000000284</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="1"/>
-        <v>76.562500000000497</v>
+      <c r="B9" s="8">
+        <f ca="1">'Table 3.3'!L9</f>
+        <v>136.53236366861151</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0592888059433392</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1220927743968654</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
-        <f>'Table 3.3'!G10</f>
-        <v>120</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="0"/>
-        <v>3.1499999999999773</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="1"/>
-        <v>9.9224999999998573</v>
+      <c r="B10" s="8">
+        <f ca="1">'Table 3.3'!L10</f>
+        <v>145.92129574651111</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.448220883842936</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>109.16531963757166</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
-        <f>'Table 3.3'!G11</f>
-        <v>121.8</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" si="0"/>
-        <v>4.9499999999999744</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" si="1"/>
-        <v>24.502499999999745</v>
+      <c r="B11" s="8">
+        <f ca="1">'Table 3.3'!L11</f>
+        <v>156.99231287956795</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.519238016899777</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>463.07760482798466</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="9">
-        <f>'Table 3.3'!G12</f>
-        <v>119.4</v>
-      </c>
-      <c r="C12" s="8">
-        <f t="shared" si="0"/>
-        <v>2.5499999999999829</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" si="1"/>
-        <v>6.5024999999999133</v>
+      <c r="B12" s="8">
+        <f ca="1">'Table 3.3'!L12</f>
+        <v>157.89094909705176</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.417874234383589</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>502.56108518863959</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="6">
-        <f>SUM(B3:B12)</f>
-        <v>1168.5000000000002</v>
-      </c>
-      <c r="C13" s="10">
-        <f>SUM(C3:C12)</f>
-        <v>-2.4158453015843406E-13</v>
-      </c>
-      <c r="D13" s="6">
-        <f>SUM(D3:D12)</f>
-        <v>235.60499999999996</v>
-      </c>
-      <c r="E13" s="13">
-        <f>SQRT(D13/(A12-1))</f>
-        <v>5.1164766522806815</v>
-      </c>
-      <c r="F13" s="14">
-        <f>AVERAGE(B3:B12)</f>
-        <v>116.85000000000002</v>
-      </c>
-      <c r="G13" s="14">
-        <f>MEDIAN(B3:B12)</f>
-        <v>119</v>
+      <c r="B13" s="9">
+        <f ca="1">SUM(B3:B12)</f>
+        <v>1354.7307486266818</v>
+      </c>
+      <c r="C13" s="9">
+        <f ca="1">SUM(C3:C12)</f>
+        <v>9.9475983006414026E-14</v>
+      </c>
+      <c r="D13" s="9">
+        <f ca="1">SUM(D3:D12)</f>
+        <v>2081.3133870848696</v>
+      </c>
+      <c r="E13" s="11">
+        <f ca="1">SQRT(D13/(A12-1))</f>
+        <v>15.207137896705941</v>
+      </c>
+      <c r="F13" s="12">
+        <f ca="1">AVERAGE(B3:B12)</f>
+        <v>135.47307486266817</v>
+      </c>
+      <c r="G13" s="12">
+        <f ca="1">MEDIAN(B3:B12)</f>
+        <v>135.06406831641129</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -2726,218 +3051,218 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="9">
-        <f>'Table 3.3'!H3</f>
-        <v>112.1</v>
-      </c>
-      <c r="C17" s="8">
-        <f>B17-AVERAGE($B$17:$B$26)</f>
-        <v>-1.0900000000000176</v>
-      </c>
-      <c r="D17" s="8">
-        <f>C17^2</f>
-        <v>1.1881000000000383</v>
+      <c r="B17" s="8">
+        <f ca="1">'Table 3.3'!M3</f>
+        <v>114.49045048580305</v>
+      </c>
+      <c r="C17" s="7">
+        <f ca="1">B17-$F$27</f>
+        <v>-17.358335066461791</v>
+      </c>
+      <c r="D17" s="7">
+        <f ca="1">C17^2</f>
+        <v>301.31179627955709</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="9">
-        <f>'Table 3.3'!H4</f>
-        <v>112.9</v>
-      </c>
-      <c r="C18" s="8">
-        <f t="shared" ref="C18:C26" si="2">B18-AVERAGE($B$17:$B$26)</f>
-        <v>-0.29000000000000625</v>
-      </c>
-      <c r="D18" s="8">
-        <f t="shared" ref="D18:D26" si="3">C18^2</f>
-        <v>8.410000000000363E-2</v>
+      <c r="B18" s="8">
+        <f ca="1">'Table 3.3'!M4</f>
+        <v>119.6371312623542</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" ref="C18:C26" ca="1" si="2">B18-$F$27</f>
+        <v>-12.211654289910641</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" ref="D18:D26" ca="1" si="3">C18^2</f>
+        <v>149.12450049629294</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="9">
-        <f>'Table 3.3'!H5</f>
-        <v>115.4</v>
-      </c>
-      <c r="C19" s="8">
-        <f t="shared" si="2"/>
-        <v>2.2099999999999937</v>
-      </c>
-      <c r="D19" s="8">
-        <f t="shared" si="3"/>
-        <v>4.8840999999999726</v>
+      <c r="B19" s="8">
+        <f ca="1">'Table 3.3'!M5</f>
+        <v>120.64282177355855</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-11.205963778706291</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>125.57362420967738</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="9">
-        <f>'Table 3.3'!H6</f>
-        <v>106.8</v>
-      </c>
-      <c r="C20" s="8">
-        <f t="shared" si="2"/>
-        <v>-6.3900000000000148</v>
-      </c>
-      <c r="D20" s="8">
-        <f t="shared" si="3"/>
-        <v>40.832100000000189</v>
+      <c r="B20" s="8">
+        <f ca="1">'Table 3.3'!M6</f>
+        <v>129.12030826583771</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.7284772864271361</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.4445883025487882</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="9">
-        <f>'Table 3.3'!H7</f>
-        <v>113.7</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" si="2"/>
-        <v>0.50999999999999091</v>
-      </c>
-      <c r="D21" s="8">
-        <f t="shared" si="3"/>
-        <v>0.26009999999999073</v>
+      <c r="B21" s="8">
+        <f ca="1">'Table 3.3'!M7</f>
+        <v>130.02122143784817</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.8275641144166741</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.3399905923036024</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="9">
-        <f>'Table 3.3'!H8</f>
-        <v>112.4</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" si="2"/>
-        <v>-0.79000000000000625</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" si="3"/>
-        <v>0.62410000000000987</v>
+      <c r="B22" s="8">
+        <f ca="1">'Table 3.3'!M8</f>
+        <v>130.10329187054319</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.7454936817216549</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.0467481929302176</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="9">
-        <f>'Table 3.3'!H9</f>
-        <v>118.1</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" si="2"/>
-        <v>4.9099999999999824</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" si="3"/>
-        <v>24.108099999999826</v>
+      <c r="B23" s="8">
+        <f ca="1">'Table 3.3'!M9</f>
+        <v>139.87552018001847</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.0267346277536262</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>64.428468784379149</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="9">
-        <f>'Table 3.3'!H10</f>
-        <v>110.9</v>
-      </c>
-      <c r="C24" s="8">
-        <f t="shared" si="2"/>
-        <v>-2.2900000000000063</v>
-      </c>
-      <c r="D24" s="8">
-        <f t="shared" si="3"/>
-        <v>5.2441000000000288</v>
+      <c r="B24" s="8">
+        <f ca="1">'Table 3.3'!M10</f>
+        <v>142.02320570970278</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.174420157437936</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>103.51882554007939</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>9</v>
       </c>
-      <c r="B25" s="9">
-        <f>'Table 3.3'!H11</f>
-        <v>112.2</v>
-      </c>
-      <c r="C25" s="8">
-        <f t="shared" si="2"/>
-        <v>-0.99000000000000909</v>
-      </c>
-      <c r="D25" s="8">
-        <f t="shared" si="3"/>
-        <v>0.98010000000001796</v>
+      <c r="B25" s="8">
+        <f ca="1">'Table 3.3'!M11</f>
+        <v>144.78392517125459</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.935139618989751</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>167.31783696275832</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3">
         <v>10</v>
       </c>
-      <c r="B26" s="9">
-        <f>'Table 3.3'!H12</f>
-        <v>117.4</v>
-      </c>
-      <c r="C26" s="8">
-        <f t="shared" si="2"/>
-        <v>4.2099999999999937</v>
-      </c>
-      <c r="D26" s="8">
-        <f t="shared" si="3"/>
-        <v>17.724099999999947</v>
+      <c r="B26" s="8">
+        <f ca="1">'Table 3.3'!M12</f>
+        <v>147.78997936572756</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.941193813462718</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>254.12166019838202</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="6">
-        <f>SUM(B17:B26)</f>
-        <v>1131.9000000000001</v>
-      </c>
-      <c r="C27" s="10">
-        <f>SUM(C17:C26)</f>
-        <v>-9.9475983006414026E-14</v>
-      </c>
-      <c r="D27" s="6">
-        <f t="shared" ref="D27" si="4">SUM(D17:D26)</f>
-        <v>95.929000000000045</v>
-      </c>
-      <c r="E27" s="13">
-        <f>SQRT(D27/(A26-1))</f>
-        <v>3.2647783657972531</v>
-      </c>
-      <c r="F27" s="14">
-        <f>AVERAGE(B17:B26)</f>
-        <v>113.19000000000001</v>
-      </c>
-      <c r="G27" s="14">
-        <f>MEDIAN(B17:B26)</f>
-        <v>112.65</v>
+      <c r="B27" s="9">
+        <f ca="1">SUM(B17:B26)</f>
+        <v>1318.4878555226485</v>
+      </c>
+      <c r="C27" s="9">
+        <f ca="1">SUM(C17:C26)</f>
+        <v>-1.5631940186722204E-13</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" ref="D27" ca="1" si="4">SUM(D17:D26)</f>
+        <v>1179.2280395589089</v>
+      </c>
+      <c r="E27" s="11">
+        <f ca="1">SQRT(D27/(A26-1))</f>
+        <v>11.446629972562564</v>
+      </c>
+      <c r="F27" s="12">
+        <f ca="1">AVERAGE(B17:B26)</f>
+        <v>131.84878555226484</v>
+      </c>
+      <c r="G27" s="12">
+        <f ca="1">MEDIAN(B17:B26)</f>
+        <v>130.06225665419566</v>
       </c>
     </row>
   </sheetData>

--- a/Lab3/random_number_generator.xlsx
+++ b/Lab3/random_number_generator.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88675617-69D0-4BBC-854D-0B628B159386}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0247B117-A824-4CE1-BD4F-75F7BCD1B400}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,14 +13,66 @@
     <sheet name="Table 3.4,3.5" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Table 3.3'!$P$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Table 3.3'!$Q$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Table 3.3'!$O$15</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Table 3.3'!$O$16:$O$20</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Table 3.3'!$P$15</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Table 3.3'!$P$16:$P$20</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Table 3.3'!$M$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Table 3.3'!$M$4:$M$13</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Table 3.3'!$N$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Table 3.3'!$N$4:$N$13</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Table 3.3'!$P$16</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Table 3.3'!$Q$16</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Table 3.3'!$P$16</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Table 3.3'!$Q$16</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Table 3.3'!$N$3</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Table 3.3'!$M$3</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Table 3.3'!$M$4:$M$13</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Table 3.3'!$N$3</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Table 3.3'!$N$4:$N$13</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Table 3.3'!$P$16</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Table 3.3'!$Q$16</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Table 3.3'!$M$3</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Table 3.3'!$M$4:$M$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Table 3.3'!$N$4:$N$13</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Table 3.3'!$N$3</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Table 3.3'!$N$4:$N$13</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Table 3.3'!$P$16</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Table 3.3'!$Q$16</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Table 3.3'!$M$3</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Table 3.3'!$M$4:$M$13</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Table 3.3'!$N$3</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'Table 3.3'!$N$4:$N$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Table 3.3'!$P$16</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'Table 3.3'!$P$16</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'Table 3.3'!$Q$16</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'Table 3.3'!$M$3</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'Table 3.3'!$M$4:$M$13</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'Table 3.3'!$N$3</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'Table 3.3'!$N$4:$N$13</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'Table 3.3'!$P$16</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'Table 3.3'!$Q$16</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'Table 3.3'!$M$3</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'Table 3.3'!$M$4:$M$13</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'Table 3.3'!$N$3</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'Table 3.3'!$N$4:$N$13</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">'Table 3.3'!$P$16</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">'Table 3.3'!$Q$16</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Table 3.3'!$Q$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Table 3.3'!$M$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Table 3.3'!$M$4:$M$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
   <si>
     <t>Variable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,7 +320,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -429,13 +481,7 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -447,6 +493,12 @@
     <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,6 +506,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFFF9900"/>
     </mruColors>
@@ -474,12 +592,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.55</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -520,35 +638,27 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{B397CAB0-6A35-484C-A4C6-4B75700B8150}">
+        <cx:series layoutId="boxWhisker" uniqueId="{00000000-30D5-4388-86DC-7CCAFBF8202D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.52</cx:f>
               <cx:v>One</cx:v>
             </cx:txData>
           </cx:tx>
-          <cx:dataLabels pos="r">
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="0" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{A7F03B88-27B6-4AF9-90F9-9A79F8E5DE90}">
+        <cx:series layoutId="boxWhisker" uniqueId="{00000001-30D5-4388-86DC-7CCAFBF8202D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.54</cx:f>
               <cx:v>Thirds</cx:v>
             </cx:txData>
           </cx:tx>
-          <cx:dataLabels pos="r">
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
           <cx:dataId val="1"/>
           <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="0" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -1217,7 +1327,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3979544" y="2406015"/>
+              <a:off x="4086224" y="2497455"/>
               <a:ext cx="4947286" cy="2577465"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1517,7 +1627,7 @@
   <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1"/>
@@ -1534,12 +1644,12 @@
     <row r="1" spans="2:6" ht="9.9" customHeight="1"/>
     <row r="2" spans="2:6" ht="15.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="2:6" ht="30.6">
       <c r="B3" s="3" t="s">
@@ -1567,15 +1677,15 @@
       </c>
       <c r="D4" s="5">
         <f ca="1">RAND()*100</f>
-        <v>81.226206701463369</v>
+        <v>40.127724100245402</v>
       </c>
       <c r="E4" s="3" t="str">
         <f ca="1">VLOOKUP(F4,$B$4:$C$23,2,FALSE)</f>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="F4" s="3">
         <f ca="1">RANK(D4,$D$4:$D$23)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.3">
@@ -1587,7 +1697,7 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D23" ca="1" si="0">RAND()*100</f>
-        <v>45.667751031166361</v>
+        <v>32.821949531105922</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" ref="E5:E23" ca="1" si="1">VLOOKUP(F5,$B$4:$C$23,2,FALSE)</f>
@@ -1595,7 +1705,7 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F23" ca="1" si="2">RANK(D5,$D$4:$D$23)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.3">
@@ -1607,7 +1717,7 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>59.929744690904187</v>
+        <v>84.302749646710595</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1615,7 +1725,7 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.3">
@@ -1627,15 +1737,15 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>95.915598082903315</v>
+        <v>51.592929783461592</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.3">
@@ -1647,15 +1757,15 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>94.892549628998665</v>
+        <v>31.895592442167043</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.3">
@@ -1667,7 +1777,7 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>98.990359397135222</v>
+        <v>77.758871109361507</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1675,7 +1785,7 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.3">
@@ -1687,7 +1797,7 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9176345175863436</v>
+        <v>38.27792053838531</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1695,7 +1805,7 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.3">
@@ -1707,7 +1817,7 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>72.733384439693879</v>
+        <v>95.958160106868718</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1715,7 +1825,7 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.3">
@@ -1727,15 +1837,15 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>82.349390094830426</v>
+        <v>23.692690601183099</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.3">
@@ -1747,15 +1857,15 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>57.206161674659647</v>
+        <v>72.863177623420953</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.3">
@@ -1767,7 +1877,7 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>58.535533383693007</v>
+        <v>21.752274204170874</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1775,7 +1885,7 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.3">
@@ -1787,7 +1897,7 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>58.873798411401104</v>
+        <v>68.598551322712382</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1795,7 +1905,7 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.3">
@@ -1807,15 +1917,15 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>74.298946598814837</v>
+        <v>32.277832656127401</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.3">
@@ -1827,15 +1937,15 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>40.006083315426736</v>
+        <v>71.570886645954616</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.3">
@@ -1847,15 +1957,15 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>50.553930047100735</v>
+        <v>58.512811014736918</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.3">
@@ -1867,15 +1977,15 @@
       </c>
       <c r="D19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>38.741100144688659</v>
+        <v>95.736916365065923</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.3">
@@ -1887,7 +1997,7 @@
       </c>
       <c r="D20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7190218245227218</v>
+        <v>31.315304016022349</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1895,7 +2005,7 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.3">
@@ -1907,7 +2017,7 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>35.223064812158391</v>
+        <v>18.662937242092205</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1915,7 +2025,7 @@
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.3">
@@ -1927,15 +2037,15 @@
       </c>
       <c r="D22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>51.016674330270497</v>
+        <v>68.568631713251222</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.3">
@@ -1947,7 +2057,7 @@
       </c>
       <c r="D23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>76.862770732304028</v>
+        <v>80.742385042927296</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1955,7 +2065,7 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1972,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3A3CA-9568-4A2A-887D-B2126F4FAA24}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
@@ -1999,22 +2109,22 @@
   <sheetData>
     <row r="1" spans="2:20" s="15" customFormat="1" ht="7.2" customHeight="1"/>
     <row r="2" spans="2:20">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="G2" s="20" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="L2" s="20" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="L2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
     </row>
@@ -2058,45 +2168,45 @@
     <row r="4" spans="2:20">
       <c r="B4" s="10" t="str">
         <f ca="1">D4&amp;COUNTIF($D$4:D4,D4)</f>
-        <v>One1</v>
+        <v>Thirds1</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
       </c>
       <c r="D4" s="17" t="str">
         <f ca="1">'Table 3.2'!E4</f>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E4" s="16">
         <f ca="1">_xlfn.NORM.INV(RAND(),140,15)</f>
-        <v>91.177909598946826</v>
-      </c>
-      <c r="G4" s="21">
+        <v>135.99833768115207</v>
+      </c>
+      <c r="G4" s="19">
         <f ca="1">RANK(H4,H$4:H$13,1) + COUNTIF(H$4:H4,H4)-1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="8">
         <f ca="1">VLOOKUP("One1",$B$4:$E$23,4,FALSE)</f>
-        <v>91.177909598946826</v>
-      </c>
-      <c r="I4" s="21">
+        <v>134.29115480546074</v>
+      </c>
+      <c r="I4" s="19">
         <f ca="1">RANK(J4,J$4:J$13,1) + COUNTIF(J$4:J4,J4)-1</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J4" s="8">
         <f ca="1">VLOOKUP("Thirds1",$B$4:$E$23,4,FALSE)</f>
-        <v>158.17497625900626</v>
+        <v>135.99833768115207</v>
       </c>
       <c r="L4" s="14">
         <v>1</v>
       </c>
       <c r="M4" s="18">
         <f ca="1">VLOOKUP(L4,G$4:H$13,2,FALSE)</f>
-        <v>91.177909598946826</v>
+        <v>106.13366052093033</v>
       </c>
       <c r="N4" s="18">
         <f ca="1">VLOOKUP(L4,I$4:J$13,2,FALSE)</f>
-        <v>133.08116125512021</v>
+        <v>110.20963248970395</v>
       </c>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
@@ -2104,7 +2214,7 @@
     <row r="5" spans="2:20">
       <c r="B5" s="10" t="str">
         <f ca="1">D5&amp;COUNTIF($D$4:D5,D5)</f>
-        <v>Thirds1</v>
+        <v>Thirds2</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
@@ -2115,34 +2225,34 @@
       </c>
       <c r="E5" s="16">
         <f t="shared" ref="E5:E23" ca="1" si="0">_xlfn.NORM.INV(RAND(),140,15)</f>
-        <v>158.17497625900626</v>
-      </c>
-      <c r="G5" s="21">
+        <v>154.12139528498844</v>
+      </c>
+      <c r="G5" s="19">
         <f ca="1">RANK(H5,H$4:H$13,1) + COUNTIF(H$4:H5,H5)-1</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H5" s="8">
         <f ca="1">VLOOKUP("One2",$B$4:$E$23,4,FALSE)</f>
-        <v>141.80274886096942</v>
-      </c>
-      <c r="I5" s="21">
+        <v>156.29665170846656</v>
+      </c>
+      <c r="I5" s="19">
         <f ca="1">RANK(J5,J$4:J$13,1) + COUNTIF(J$4:J5,J5)-1</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="8">
         <f ca="1">VLOOKUP("Thirds2",$B$4:$E$23,4,FALSE)</f>
-        <v>151.88313066441717</v>
+        <v>154.12139528498844</v>
       </c>
       <c r="L5" s="14">
         <v>2</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M13" ca="1" si="1">VLOOKUP(L5,G$4:H$13,2,FALSE)</f>
-        <v>122.86799509837277</v>
+        <v>117.94498002152739</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" ref="N5:N13" ca="1" si="2">VLOOKUP(L5,I$4:J$13,2,FALSE)</f>
-        <v>135.43920306915939</v>
+        <v>122.41912000037549</v>
       </c>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
@@ -2150,7 +2260,7 @@
     <row r="6" spans="2:20">
       <c r="B6" s="10" t="str">
         <f ca="1">D6&amp;COUNTIF($D$4:D6,D6)</f>
-        <v>One2</v>
+        <v>One1</v>
       </c>
       <c r="C6" s="10">
         <v>3</v>
@@ -2161,23 +2271,23 @@
       </c>
       <c r="E6" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>141.80274886096942</v>
-      </c>
-      <c r="G6" s="21">
+        <v>134.29115480546074</v>
+      </c>
+      <c r="G6" s="19">
         <f ca="1">RANK(H6,H$4:H$13,1) + COUNTIF(H$4:H6,H6)-1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="8">
         <f ca="1">VLOOKUP("One3",$B$4:$E$23,4,FALSE)</f>
-        <v>122.86799509837277</v>
-      </c>
-      <c r="I6" s="21">
+        <v>135.22187333196032</v>
+      </c>
+      <c r="I6" s="19">
         <f ca="1">RANK(J6,J$4:J$13,1) + COUNTIF(J$4:J6,J6)-1</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" s="8">
         <f ca="1">VLOOKUP("Thirds3",$B$4:$E$23,4,FALSE)</f>
-        <v>133.08116125512021</v>
+        <v>186.08449056089816</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="14">
@@ -2185,11 +2295,11 @@
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>132.58972090739789</v>
+        <v>134.29115480546074</v>
       </c>
       <c r="N6" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>135.99959645842617</v>
+        <v>123.1244820437754</v>
       </c>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
@@ -2197,34 +2307,34 @@
     <row r="7" spans="2:20">
       <c r="B7" s="10" t="str">
         <f ca="1">D7&amp;COUNTIF($D$4:D7,D7)</f>
-        <v>One3</v>
+        <v>Thirds3</v>
       </c>
       <c r="C7" s="10">
         <v>4</v>
       </c>
       <c r="D7" s="17" t="str">
         <f ca="1">'Table 3.2'!E7</f>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>122.86799509837277</v>
-      </c>
-      <c r="G7" s="21">
+        <v>186.08449056089816</v>
+      </c>
+      <c r="G7" s="19">
         <f ca="1">RANK(H7,H$4:H$13,1) + COUNTIF(H$4:H7,H7)-1</f>
         <v>6</v>
       </c>
       <c r="H7" s="8">
         <f ca="1">VLOOKUP("One4",$B$4:$E$23,4,FALSE)</f>
-        <v>136.24036239035294</v>
-      </c>
-      <c r="I7" s="21">
+        <v>139.41531819151447</v>
+      </c>
+      <c r="I7" s="19">
         <f ca="1">RANK(J7,J$4:J$13,1) + COUNTIF(J$4:J7,J7)-1</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J7" s="8">
         <f ca="1">VLOOKUP("Thirds4",$B$4:$E$23,4,FALSE)</f>
-        <v>135.43920306915939</v>
+        <v>141.84320667318525</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="14">
@@ -2232,11 +2342,11 @@
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>134.59138641412324</v>
+        <v>135.22187333196032</v>
       </c>
       <c r="N7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>139.91395646075031</v>
+        <v>135.99833768115207</v>
       </c>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -2244,34 +2354,34 @@
     <row r="8" spans="2:20">
       <c r="B8" s="10" t="str">
         <f ca="1">D8&amp;COUNTIF($D$4:D8,D8)</f>
-        <v>One4</v>
+        <v>Thirds4</v>
       </c>
       <c r="C8" s="10">
         <v>5</v>
       </c>
       <c r="D8" s="17" t="str">
         <f ca="1">'Table 3.2'!E8</f>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E8" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>136.24036239035294</v>
-      </c>
-      <c r="G8" s="21">
+        <v>141.84320667318525</v>
+      </c>
+      <c r="G8" s="19">
         <f ca="1">RANK(H8,H$4:H$13,1) + COUNTIF(H$4:H8,H8)-1</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H8" s="8">
         <f ca="1">VLOOKUP("One5",$B$4:$E$23,4,FALSE)</f>
-        <v>132.58972090739789</v>
-      </c>
-      <c r="I8" s="21">
+        <v>146.79972061145196</v>
+      </c>
+      <c r="I8" s="19">
         <f ca="1">RANK(J8,J$4:J$13,1) + COUNTIF(J$4:J8,J8)-1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="8">
         <f ca="1">VLOOKUP("Thirds5",$B$4:$E$23,4,FALSE)</f>
-        <v>149.45787546652539</v>
+        <v>139.96126829964055</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="14">
@@ -2279,11 +2389,11 @@
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>135.73463630579676</v>
+        <v>138.89387484269784</v>
       </c>
       <c r="N8" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>146.87166372371149</v>
+        <v>139.96126829964055</v>
       </c>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -2291,7 +2401,7 @@
     <row r="9" spans="2:20">
       <c r="B9" s="10" t="str">
         <f ca="1">D9&amp;COUNTIF($D$4:D9,D9)</f>
-        <v>One5</v>
+        <v>One2</v>
       </c>
       <c r="C9" s="10">
         <v>6</v>
@@ -2302,23 +2412,23 @@
       </c>
       <c r="E9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>132.58972090739789</v>
-      </c>
-      <c r="G9" s="21">
+        <v>156.29665170846656</v>
+      </c>
+      <c r="G9" s="19">
         <f ca="1">RANK(H9,H$4:H$13,1) + COUNTIF(H$4:H9,H9)-1</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H9" s="8">
         <f ca="1">VLOOKUP("One6",$B$4:$E$23,4,FALSE)</f>
-        <v>135.73463630579676</v>
-      </c>
-      <c r="I9" s="21">
+        <v>150.97088504069558</v>
+      </c>
+      <c r="I9" s="19">
         <f ca="1">RANK(J9,J$4:J$13,1) + COUNTIF(J$4:J9,J9)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="8">
         <f ca="1">VLOOKUP("Thirds6",$B$4:$E$23,4,FALSE)</f>
-        <v>135.99959645842617</v>
+        <v>122.41912000037549</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="14">
@@ -2326,11 +2436,11 @@
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>136.24036239035294</v>
+        <v>139.41531819151447</v>
       </c>
       <c r="N9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>149.45787546652539</v>
+        <v>140.98119874244586</v>
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -2341,7 +2451,7 @@
     <row r="10" spans="2:20">
       <c r="B10" s="10" t="str">
         <f ca="1">D10&amp;COUNTIF($D$4:D10,D10)</f>
-        <v>Thirds2</v>
+        <v>Thirds5</v>
       </c>
       <c r="C10" s="10">
         <v>7</v>
@@ -2352,23 +2462,23 @@
       </c>
       <c r="E10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>151.88313066441717</v>
-      </c>
-      <c r="G10" s="21">
+        <v>139.96126829964055</v>
+      </c>
+      <c r="G10" s="19">
         <f ca="1">RANK(H10,H$4:H$13,1) + COUNTIF(H$4:H10,H10)-1</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H10" s="8">
         <f ca="1">VLOOKUP("One7",$B$4:$E$23,4,FALSE)</f>
-        <v>147.28434420275985</v>
-      </c>
-      <c r="I10" s="21">
+        <v>138.89387484269784</v>
+      </c>
+      <c r="I10" s="19">
         <f ca="1">RANK(J10,J$4:J$13,1) + COUNTIF(J$4:J10,J10)-1</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J10" s="8">
         <f ca="1">VLOOKUP("Thirds7",$B$4:$E$23,4,FALSE)</f>
-        <v>158.15171805354362</v>
+        <v>123.1244820437754</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="14">
@@ -2376,17 +2486,17 @@
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>141.80274886096942</v>
+        <v>143.73230170665991</v>
       </c>
       <c r="N10" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>151.88313066441717</v>
+        <v>141.84320667318525</v>
       </c>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="10" t="str">
         <f ca="1">D11&amp;COUNTIF($D$4:D11,D11)</f>
-        <v>One6</v>
+        <v>One3</v>
       </c>
       <c r="C11" s="10">
         <v>8</v>
@@ -2397,23 +2507,23 @@
       </c>
       <c r="E11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>135.73463630579676</v>
-      </c>
-      <c r="G11" s="21">
+        <v>135.22187333196032</v>
+      </c>
+      <c r="G11" s="19">
         <f ca="1">RANK(H11,H$4:H$13,1) + COUNTIF(H$4:H11,H11)-1</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H11" s="8">
         <f ca="1">VLOOKUP("One8",$B$4:$E$23,4,FALSE)</f>
-        <v>158.12012841673197</v>
-      </c>
-      <c r="I11" s="21">
+        <v>117.94498002152739</v>
+      </c>
+      <c r="I11" s="19">
         <f ca="1">RANK(J11,J$4:J$13,1) + COUNTIF(J$4:J11,J11)-1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J11" s="8">
         <f ca="1">VLOOKUP("Thirds8",$B$4:$E$23,4,FALSE)</f>
-        <v>139.91395646075031</v>
+        <v>147.01449656250819</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="14">
@@ -2421,44 +2531,44 @@
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>144.51091805288797</v>
+        <v>146.79972061145196</v>
       </c>
       <c r="N11" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>157.75201759426244</v>
+        <v>147.01449656250819</v>
       </c>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="10" t="str">
         <f ca="1">D12&amp;COUNTIF($D$4:D12,D12)</f>
-        <v>One7</v>
+        <v>Thirds6</v>
       </c>
       <c r="C12" s="10">
         <v>9</v>
       </c>
       <c r="D12" s="17" t="str">
         <f ca="1">'Table 3.2'!E12</f>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E12" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>147.28434420275985</v>
-      </c>
-      <c r="G12" s="21">
+        <v>122.41912000037549</v>
+      </c>
+      <c r="G12" s="19">
         <f ca="1">RANK(H12,H$4:H$13,1) + COUNTIF(H$4:H12,H12)-1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="8">
         <f ca="1">VLOOKUP("One9",$B$4:$E$23,4,FALSE)</f>
-        <v>144.51091805288797</v>
-      </c>
-      <c r="I12" s="21">
+        <v>143.73230170665991</v>
+      </c>
+      <c r="I12" s="19">
         <f ca="1">RANK(J12,J$4:J$13,1) + COUNTIF(J$4:J12,J12)-1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="8">
         <f ca="1">VLOOKUP("Thirds9",$B$4:$E$23,4,FALSE)</f>
-        <v>146.87166372371149</v>
+        <v>140.98119874244586</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="14">
@@ -2466,44 +2576,44 @@
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>147.28434420275985</v>
+        <v>150.97088504069558</v>
       </c>
       <c r="N12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>158.15171805354362</v>
+        <v>154.12139528498844</v>
       </c>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="10" t="str">
         <f ca="1">D13&amp;COUNTIF($D$4:D13,D13)</f>
-        <v>Thirds3</v>
+        <v>One4</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
       </c>
       <c r="D13" s="17" t="str">
         <f ca="1">'Table 3.2'!E13</f>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E13" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>133.08116125512021</v>
-      </c>
-      <c r="G13" s="21">
+        <v>139.41531819151447</v>
+      </c>
+      <c r="G13" s="19">
         <f ca="1">RANK(H13,H$4:H$13,1) + COUNTIF(H$4:H13,H13)-1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H13" s="8">
         <f ca="1">VLOOKUP("One10",$B$4:$E$23,4,FALSE)</f>
-        <v>134.59138641412324</v>
-      </c>
-      <c r="I13" s="21">
+        <v>106.13366052093033</v>
+      </c>
+      <c r="I13" s="19">
         <f ca="1">RANK(J13,J$4:J$13,1) + COUNTIF(J$4:J13,J13)-1</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J13" s="8">
         <f ca="1">VLOOKUP("Thirds10",$B$4:$E$23,4,FALSE)</f>
-        <v>157.75201759426244</v>
+        <v>110.20963248970395</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="14">
@@ -2511,17 +2621,17 @@
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>158.12012841673197</v>
+        <v>156.29665170846656</v>
       </c>
       <c r="N13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>158.17497625900626</v>
+        <v>186.08449056089816</v>
       </c>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="10" t="str">
         <f ca="1">D14&amp;COUNTIF($D$4:D14,D14)</f>
-        <v>Thirds4</v>
+        <v>Thirds7</v>
       </c>
       <c r="C14" s="10">
         <v>11</v>
@@ -2532,13 +2642,13 @@
       </c>
       <c r="E14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>135.43920306915939</v>
+        <v>123.1244820437754</v>
       </c>
     </row>
     <row r="15" spans="2:20">
       <c r="B15" s="10" t="str">
         <f ca="1">D15&amp;COUNTIF($D$4:D15,D15)</f>
-        <v>One8</v>
+        <v>One5</v>
       </c>
       <c r="C15" s="10">
         <v>12</v>
@@ -2549,29 +2659,29 @@
       </c>
       <c r="E15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>158.12012841673197</v>
-      </c>
-      <c r="O15" s="20" t="s">
+        <v>146.79972061145196</v>
+      </c>
+      <c r="O15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
     </row>
     <row r="16" spans="2:20">
       <c r="B16" s="10" t="str">
         <f ca="1">D16&amp;COUNTIF($D$4:D16,D16)</f>
-        <v>One9</v>
+        <v>Thirds8</v>
       </c>
       <c r="C16" s="10">
         <v>13</v>
       </c>
       <c r="D16" s="17" t="str">
         <f ca="1">'Table 3.2'!E16</f>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>144.51091805288797</v>
+        <v>147.01449656250819</v>
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -2588,91 +2698,91 @@
     <row r="17" spans="2:17">
       <c r="B17" s="10" t="str">
         <f ca="1">D17&amp;COUNTIF($D$4:D17,D17)</f>
-        <v>Thirds5</v>
+        <v>One6</v>
       </c>
       <c r="C17" s="10">
         <v>14</v>
       </c>
       <c r="D17" s="17" t="str">
         <f ca="1">'Table 3.2'!E17</f>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E17" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>149.45787546652539</v>
+        <v>150.97088504069558</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="22">
         <f ca="1">M4</f>
-        <v>91.177909598946826</v>
-      </c>
-      <c r="Q17" s="24">
+        <v>106.13366052093033</v>
+      </c>
+      <c r="Q17" s="22">
         <f ca="1">N4</f>
-        <v>133.08116125512021</v>
+        <v>110.20963248970395</v>
       </c>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="10" t="str">
         <f ca="1">D18&amp;COUNTIF($D$4:D18,D18)</f>
-        <v>Thirds6</v>
+        <v>One7</v>
       </c>
       <c r="C18" s="10">
         <v>15</v>
       </c>
       <c r="D18" s="17" t="str">
         <f ca="1">'Table 3.2'!E18</f>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>135.99959645842617</v>
+        <v>138.89387484269784</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="22">
         <f ca="1">M6</f>
-        <v>132.58972090739789</v>
-      </c>
-      <c r="Q18" s="24">
+        <v>134.29115480546074</v>
+      </c>
+      <c r="Q18" s="22">
         <f ca="1">N6</f>
-        <v>135.99959645842617</v>
+        <v>123.1244820437754</v>
       </c>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="10" t="str">
         <f ca="1">D19&amp;COUNTIF($D$4:D19,D19)</f>
-        <v>Thirds7</v>
+        <v>One8</v>
       </c>
       <c r="C19" s="10">
         <v>16</v>
       </c>
       <c r="D19" s="17" t="str">
         <f ca="1">'Table 3.2'!E19</f>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>158.15171805354362</v>
+        <v>117.94498002152739</v>
       </c>
       <c r="O19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="22">
         <f ca="1">AVERAGE(M8:M9)</f>
-        <v>135.98749934807483</v>
-      </c>
-      <c r="Q19" s="24">
+        <v>139.15459651710614</v>
+      </c>
+      <c r="Q19" s="22">
         <f ca="1">AVERAGE(N8:N9)</f>
-        <v>148.16476959511846</v>
+        <v>140.47123352104319</v>
       </c>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="10" t="str">
         <f ca="1">D20&amp;COUNTIF($D$4:D20,D20)</f>
-        <v>Thirds8</v>
+        <v>Thirds9</v>
       </c>
       <c r="C20" s="10">
         <v>17</v>
@@ -2683,24 +2793,24 @@
       </c>
       <c r="E20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>139.91395646075031</v>
+        <v>140.98119874244586</v>
       </c>
       <c r="O20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="22">
         <f ca="1">M11</f>
-        <v>144.51091805288797</v>
-      </c>
-      <c r="Q20" s="24">
+        <v>146.79972061145196</v>
+      </c>
+      <c r="Q20" s="22">
         <f ca="1">N11</f>
-        <v>157.75201759426244</v>
+        <v>147.01449656250819</v>
       </c>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="10" t="str">
         <f ca="1">D21&amp;COUNTIF($D$4:D21,D21)</f>
-        <v>Thirds9</v>
+        <v>Thirds10</v>
       </c>
       <c r="C21" s="10">
         <v>18</v>
@@ -2711,35 +2821,35 @@
       </c>
       <c r="E21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>146.87166372371149</v>
+        <v>110.20963248970395</v>
       </c>
       <c r="O21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P21" s="22">
         <f ca="1">M13</f>
-        <v>158.12012841673197</v>
-      </c>
-      <c r="Q21" s="24">
+        <v>156.29665170846656</v>
+      </c>
+      <c r="Q21" s="22">
         <f ca="1">N13</f>
-        <v>158.17497625900626</v>
+        <v>186.08449056089816</v>
       </c>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="10" t="str">
         <f ca="1">D22&amp;COUNTIF($D$4:D22,D22)</f>
-        <v>Thirds10</v>
+        <v>One9</v>
       </c>
       <c r="C22" s="10">
         <v>19</v>
       </c>
       <c r="D22" s="17" t="str">
         <f ca="1">'Table 3.2'!E22</f>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E22" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>157.75201759426244</v>
+        <v>143.73230170665991</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -2756,7 +2866,7 @@
       </c>
       <c r="E23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>134.59138641412324</v>
+        <v>106.13366052093033</v>
       </c>
     </row>
   </sheetData>
@@ -2797,12 +2907,12 @@
   <sheetData>
     <row r="1" spans="2:9" s="15" customFormat="1" ht="12.9" customHeight="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="3" t="s">
@@ -2817,7 +2927,7 @@
       <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="3">
@@ -2825,17 +2935,17 @@
       </c>
       <c r="C4" s="8">
         <f ca="1">'Table 3.3'!M4</f>
-        <v>91.177909598946826</v>
+        <v>106.13366052093033</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">C4-$H$14</f>
-        <v>-43.314105425887135</v>
+        <v>-30.836381557206153</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">D4^2</f>
-        <v>1876.1117288448654</v>
-      </c>
-      <c r="F4" s="23"/>
+        <v>950.88242754160376</v>
+      </c>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="3">
@@ -2843,17 +2953,17 @@
       </c>
       <c r="C5" s="8">
         <f ca="1">'Table 3.3'!M5</f>
-        <v>122.86799509837277</v>
+        <v>117.94498002152739</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D13" ca="1" si="0">C5-$H$14</f>
-        <v>-11.624019926461187</v>
+        <v>-19.025062056609102</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" ref="E5:E13" ca="1" si="1">D5^2</f>
-        <v>135.11783925076674</v>
-      </c>
-      <c r="F5" s="23"/>
+        <v>361.95298625782732</v>
+      </c>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="3">
@@ -2861,17 +2971,17 @@
       </c>
       <c r="C6" s="8">
         <f ca="1">'Table 3.3'!M6</f>
-        <v>132.58972090739789</v>
+        <v>134.29115480546074</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.902294117436071</v>
+        <v>-2.6788872726757518</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6187229092318804</v>
-      </c>
-      <c r="F6" s="23"/>
+        <v>7.1764370197041281</v>
+      </c>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="3">
@@ -2879,17 +2989,17 @@
       </c>
       <c r="C7" s="8">
         <f ca="1">'Table 3.3'!M7</f>
-        <v>134.59138641412324</v>
+        <v>135.22187333196032</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9371389289274248E-2</v>
+        <v>-1.7481687461761624</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8746730092804883E-3</v>
-      </c>
-      <c r="F7" s="23"/>
+        <v>3.0560939651071357</v>
+      </c>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="3">
@@ -2897,17 +3007,17 @@
       </c>
       <c r="C8" s="8">
         <f ca="1">'Table 3.3'!M8</f>
-        <v>135.73463630579676</v>
+        <v>138.89387484269784</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2426212809627941</v>
+        <v>1.9238327645613538</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5441076479016154</v>
-      </c>
-      <c r="F8" s="23"/>
+        <v>3.7011325059997811</v>
+      </c>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="3">
@@ -2915,17 +3025,17 @@
       </c>
       <c r="C9" s="8">
         <f ca="1">'Table 3.3'!M9</f>
-        <v>136.24036239035294</v>
+        <v>139.41531819151447</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7483473655189812</v>
+        <v>2.4452761133779859</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0567185105171619</v>
-      </c>
-      <c r="F9" s="23"/>
+        <v>5.9793752706569485</v>
+      </c>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="3">
@@ -2933,17 +3043,17 @@
       </c>
       <c r="C10" s="8">
         <f ca="1">'Table 3.3'!M10</f>
-        <v>141.80274886096942</v>
+        <v>143.73230170665991</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.310733836135455</v>
+        <v>6.7622596285234238</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>53.446829222815829</v>
-      </c>
-      <c r="F10" s="23"/>
+        <v>45.728155283557754</v>
+      </c>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="3">
@@ -2951,17 +3061,17 @@
       </c>
       <c r="C11" s="8">
         <f ca="1">'Table 3.3'!M11</f>
-        <v>144.51091805288797</v>
+        <v>146.79972061145196</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.018903028054012</v>
+        <v>9.829678533315473</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>100.37841788554985</v>
-      </c>
-      <c r="F11" s="23"/>
+        <v>96.622580068323032</v>
+      </c>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="3">
@@ -2969,17 +3079,17 @@
       </c>
       <c r="C12" s="8">
         <f ca="1">'Table 3.3'!M12</f>
-        <v>147.28434420275985</v>
+        <v>150.97088504069558</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.792329177925893</v>
+        <v>14.000842962559091</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>163.64368579641416</v>
-      </c>
-      <c r="F12" s="23"/>
+        <v>196.02360366224042</v>
+      </c>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="3">
@@ -2987,17 +3097,17 @@
       </c>
       <c r="C13" s="8">
         <f ca="1">'Table 3.3'!M13</f>
-        <v>158.12012841673197</v>
+        <v>156.29665170846656</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>23.628113391898012</v>
+        <v>19.326609630330069</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>558.28774246039018</v>
-      </c>
-      <c r="F13" s="23"/>
+        <v>373.51783980316696</v>
+      </c>
+      <c r="F13" s="21"/>
       <c r="G13" s="2" t="s">
         <v>23</v>
       </c>
@@ -3011,37 +3121,37 @@
     <row r="14" spans="2:9">
       <c r="C14" s="9">
         <f ca="1">SUM(C4:C13)</f>
-        <v>1344.9201502483397</v>
+        <v>1369.700420781365</v>
       </c>
       <c r="D14" s="9">
         <f ca="1">SUM(D4:D13)</f>
-        <v>2.8421709430404007E-14</v>
+        <v>2.2737367544323206E-13</v>
       </c>
       <c r="E14" s="9">
         <f ca="1">SUM(E4:E13)</f>
-        <v>2895.2156672014621</v>
-      </c>
-      <c r="F14" s="23"/>
+        <v>2044.640631378187</v>
+      </c>
+      <c r="F14" s="21"/>
       <c r="G14" s="11">
         <f ca="1">SQRT(E14/(B13-1))</f>
-        <v>17.935736106696353</v>
+        <v>15.072567544229289</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">AVERAGE(C4:C13)</f>
-        <v>134.49201502483396</v>
+        <v>136.97004207813649</v>
       </c>
       <c r="I14" s="12">
         <f ca="1">MEDIAN(C4:C13)</f>
-        <v>135.98749934807483</v>
+        <v>139.15459651710614</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="3" t="s">
@@ -3056,7 +3166,7 @@
       <c r="E17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="3">
@@ -3064,17 +3174,17 @@
       </c>
       <c r="C18" s="8">
         <f ca="1">'Table 3.3'!N4</f>
-        <v>133.08116125512021</v>
+        <v>110.20963248970395</v>
       </c>
       <c r="D18" s="7">
         <f ca="1">C18-$H$28</f>
-        <v>-13.591368645372029</v>
+        <v>-29.966130344163389</v>
       </c>
       <c r="E18" s="7">
         <f ca="1">D18^2</f>
-        <v>184.7253016544019</v>
-      </c>
-      <c r="F18" s="23"/>
+        <v>897.96896780338989</v>
+      </c>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="3">
@@ -3082,17 +3192,17 @@
       </c>
       <c r="C19" s="8">
         <f ca="1">'Table 3.3'!N5</f>
-        <v>135.43920306915939</v>
+        <v>122.41912000037549</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" ref="D19:D27" ca="1" si="2">C19-$H$28</f>
-        <v>-11.233326831332846</v>
+        <v>-17.756642833491853</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" ref="E19:E27" ca="1" si="3">D19^2</f>
-        <v>126.18763169954244</v>
-      </c>
-      <c r="F19" s="23"/>
+        <v>315.29836471619757</v>
+      </c>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="3">
@@ -3100,17 +3210,17 @@
       </c>
       <c r="C20" s="8">
         <f ca="1">'Table 3.3'!N6</f>
-        <v>135.99959645842617</v>
+        <v>123.1244820437754</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-10.672933442066068</v>
+        <v>-17.051280790091937</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>113.91150825877224</v>
-      </c>
-      <c r="F20" s="23"/>
+        <v>290.74617658255829</v>
+      </c>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="3">
@@ -3118,17 +3228,17 @@
       </c>
       <c r="C21" s="8">
         <f ca="1">'Table 3.3'!N7</f>
-        <v>139.91395646075031</v>
+        <v>135.99833768115207</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.758573439741923</v>
+        <v>-4.1774251527152728</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>45.678314940384972</v>
-      </c>
-      <c r="F21" s="23"/>
+        <v>17.45088090653822</v>
+      </c>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="3">
@@ -3136,17 +3246,17 @@
       </c>
       <c r="C22" s="8">
         <f ca="1">'Table 3.3'!N8</f>
-        <v>146.87166372371149</v>
+        <v>139.96126829964055</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1991338232192561</v>
+        <v>-0.21449453422678744</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9654279549917938E-2</v>
-      </c>
-      <c r="F22" s="23"/>
+        <v>4.6007905213166486E-2</v>
+      </c>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="3">
@@ -3154,17 +3264,17 @@
       </c>
       <c r="C23" s="8">
         <f ca="1">'Table 3.3'!N9</f>
-        <v>149.45787546652539</v>
+        <v>140.98119874244586</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7853455660331576</v>
+        <v>0.80543590857851655</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7581499222205714</v>
-      </c>
-      <c r="F23" s="23"/>
+        <v>0.64872700282770046</v>
+      </c>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="3">
@@ -3172,17 +3282,17 @@
       </c>
       <c r="C24" s="8">
         <f ca="1">'Table 3.3'!N10</f>
-        <v>151.88313066441717</v>
+        <v>141.84320667318525</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2106007639249299</v>
+        <v>1.6674438393179116</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>27.150360321015064</v>
-      </c>
-      <c r="F24" s="23"/>
+        <v>2.7803689572792574</v>
+      </c>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="3">
@@ -3190,17 +3300,17 @@
       </c>
       <c r="C25" s="8">
         <f ca="1">'Table 3.3'!N11</f>
-        <v>157.75201759426244</v>
+        <v>147.01449656250819</v>
       </c>
       <c r="D25" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>11.079487693770204</v>
+        <v>6.8387337286408467</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>122.7550475564054</v>
-      </c>
-      <c r="F25" s="23"/>
+        <v>46.768279011249938</v>
+      </c>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="3">
@@ -3208,17 +3318,17 @@
       </c>
       <c r="C26" s="8">
         <f ca="1">'Table 3.3'!N12</f>
-        <v>158.15171805354362</v>
+        <v>154.12139528498844</v>
       </c>
       <c r="D26" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>11.479188153051382</v>
+        <v>13.945632451121099</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>131.77176065315518</v>
-      </c>
-      <c r="F26" s="23"/>
+        <v>194.48066446176188</v>
+      </c>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="3">
@@ -3226,17 +3336,17 @@
       </c>
       <c r="C27" s="8">
         <f ca="1">'Table 3.3'!N13</f>
-        <v>158.17497625900626</v>
+        <v>186.08449056089816</v>
       </c>
       <c r="D27" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>11.502446358514021</v>
+        <v>45.908727727030822</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>132.30627223049245</v>
-      </c>
-      <c r="F27" s="23"/>
+        <v>2107.6112815146485</v>
+      </c>
+      <c r="F27" s="21"/>
       <c r="G27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3250,28 +3360,28 @@
     <row r="28" spans="2:9">
       <c r="C28" s="9">
         <f ca="1">SUM(C18:C27)</f>
-        <v>1466.7252990049224</v>
+        <v>1401.7576283386734</v>
       </c>
       <c r="D28" s="9">
         <f ca="1">SUM(D18:D27)</f>
-        <v>8.5265128291212022E-14</v>
+        <v>0</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" ref="E28" ca="1" si="4">SUM(E18:E27)</f>
-        <v>892.28400151594019</v>
-      </c>
-      <c r="F28" s="23"/>
+        <v>3873.7997188616641</v>
+      </c>
+      <c r="F28" s="21"/>
       <c r="G28" s="11">
         <f ca="1">SQRT(E28/(B27-1))</f>
-        <v>9.9570410682644308</v>
+        <v>20.746618784385792</v>
       </c>
       <c r="H28" s="12">
         <f ca="1">AVERAGE(C18:C27)</f>
-        <v>146.67252990049224</v>
+        <v>140.17576283386734</v>
       </c>
       <c r="I28" s="12">
         <f ca="1">MEDIAN(C18:C27)</f>
-        <v>148.16476959511846</v>
+        <v>140.47123352104319</v>
       </c>
     </row>
   </sheetData>

--- a/Lab3/random_number_generator.xlsx
+++ b/Lab3/random_number_generator.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0247B117-A824-4CE1-BD4F-75F7BCD1B400}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06BDDA4-56DD-472C-9371-D184064FA88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="3444" windowWidth="30960" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3.2" sheetId="1" r:id="rId1"/>
@@ -15,64 +15,8 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Table 3.3'!$M$3</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Table 3.3'!$M$4:$M$13</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Table 3.3'!$N$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Table 3.3'!$N$4:$N$13</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Table 3.3'!$P$16</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Table 3.3'!$Q$16</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Table 3.3'!$P$16</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Table 3.3'!$Q$16</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Table 3.3'!$N$3</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Table 3.3'!$M$3</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Table 3.3'!$M$4:$M$13</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Table 3.3'!$N$3</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Table 3.3'!$N$4:$N$13</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Table 3.3'!$P$16</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Table 3.3'!$Q$16</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Table 3.3'!$M$3</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Table 3.3'!$M$4:$M$13</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Table 3.3'!$N$4:$N$13</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Table 3.3'!$N$3</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Table 3.3'!$N$4:$N$13</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Table 3.3'!$P$16</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Table 3.3'!$Q$16</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'Table 3.3'!$M$3</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'Table 3.3'!$M$4:$M$13</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'Table 3.3'!$N$3</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'Table 3.3'!$N$4:$N$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Table 3.3'!$P$16</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'Table 3.3'!$P$16</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'Table 3.3'!$Q$16</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'Table 3.3'!$M$3</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'Table 3.3'!$M$4:$M$13</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'Table 3.3'!$N$3</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'Table 3.3'!$N$4:$N$13</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'Table 3.3'!$P$16</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'Table 3.3'!$Q$16</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'Table 3.3'!$M$3</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'Table 3.3'!$M$4:$M$13</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'Table 3.3'!$N$3</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'Table 3.3'!$N$4:$N$13</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">'Table 3.3'!$P$16</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">'Table 3.3'!$P$17:$P$21</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">'Table 3.3'!$Q$16</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Table 3.3'!$Q$16</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Table 3.3'!$Q$17:$Q$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Table 3.3'!$M$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Table 3.3'!$M$4:$M$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -90,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Variable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,20 +265,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0_ "/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -448,7 +394,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -460,7 +406,7 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -472,16 +418,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -490,7 +436,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -506,72 +452,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFFF9900"/>
     </mruColors>
@@ -592,12 +472,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.55</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -641,7 +521,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-30D5-4388-86DC-7CCAFBF8202D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.52</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>One</cx:v>
             </cx:txData>
           </cx:tx>
@@ -653,7 +533,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-30D5-4388-86DC-7CCAFBF8202D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.54</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Thirds</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1327,8 +1207,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4086224" y="2497455"/>
-              <a:ext cx="4947286" cy="2577465"/>
+              <a:off x="3689984" y="2543175"/>
+              <a:ext cx="4474846" cy="2626995"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1347,7 +1227,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -1626,23 +1506,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F32:F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.44921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="9.9" customHeight="1"/>
-    <row r="2" spans="2:6" ht="15.3">
+    <row r="2" spans="2:6" ht="15.6">
       <c r="B2" s="2"/>
       <c r="C2" s="23" t="s">
         <v>7</v>
@@ -1651,7 +1531,7 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="2:6" ht="30.6">
+    <row r="3" spans="2:6" ht="46.8">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1668,7 +1548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15.3">
+    <row r="4" spans="2:6" ht="15.6">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -1677,18 +1557,18 @@
       </c>
       <c r="D4" s="5">
         <f ca="1">RAND()*100</f>
-        <v>40.127724100245402</v>
+        <v>74.766834174172274</v>
       </c>
       <c r="E4" s="3" t="str">
         <f ca="1">VLOOKUP(F4,$B$4:$C$23,2,FALSE)</f>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="F4" s="3">
         <f ca="1">RANK(D4,$D$4:$D$23)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.6">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1697,18 +1577,18 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D23" ca="1" si="0">RAND()*100</f>
-        <v>32.821949531105922</v>
+        <v>77.692484512116238</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" ref="E5:E23" ca="1" si="1">VLOOKUP(F5,$B$4:$C$23,2,FALSE)</f>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F23" ca="1" si="2">RANK(D5,$D$4:$D$23)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.6">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1717,7 +1597,7 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>84.302749646710595</v>
+        <v>62.718383647469544</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1725,10 +1605,10 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.6">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1737,7 +1617,7 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>51.592929783461592</v>
+        <v>61.405913350821571</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1748,7 +1628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.3">
+    <row r="8" spans="2:6" ht="15.6">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -1757,18 +1637,18 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>31.895592442167043</v>
+        <v>84.386690277676166</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.6">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -1777,7 +1657,7 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>77.758871109361507</v>
+        <v>94.280915499596091</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1785,10 +1665,10 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.6">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -1797,7 +1677,7 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>38.27792053838531</v>
+        <v>13.019160789549089</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1805,10 +1685,10 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.6">
       <c r="B11" s="3">
         <v>8</v>
       </c>
@@ -1817,18 +1697,18 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>95.958160106868718</v>
+        <v>1.1680178873421987</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.6">
       <c r="B12" s="3">
         <v>9</v>
       </c>
@@ -1837,7 +1717,7 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>23.692690601183099</v>
+        <v>15.691378860122162</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1845,10 +1725,10 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.6">
       <c r="B13" s="3">
         <v>10</v>
       </c>
@@ -1857,18 +1737,18 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>72.863177623420953</v>
+        <v>12.608347139155807</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.6">
       <c r="B14" s="3">
         <v>11</v>
       </c>
@@ -1877,18 +1757,18 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>21.752274204170874</v>
+        <v>67.50255832751219</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.6">
       <c r="B15" s="3">
         <v>12</v>
       </c>
@@ -1897,7 +1777,7 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>68.598551322712382</v>
+        <v>73.05202398208634</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1905,10 +1785,10 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.6">
       <c r="B16" s="3">
         <v>13</v>
       </c>
@@ -1917,18 +1797,18 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>32.277832656127401</v>
+        <v>64.537428285649781</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.6">
       <c r="B17" s="3">
         <v>14</v>
       </c>
@@ -1937,18 +1817,18 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>71.570886645954616</v>
+        <v>43.276190854315914</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.6">
       <c r="B18" s="3">
         <v>15</v>
       </c>
@@ -1957,18 +1837,18 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>58.512811014736918</v>
+        <v>6.2826448806755142</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.6">
       <c r="B19" s="3">
         <v>16</v>
       </c>
@@ -1977,7 +1857,7 @@
       </c>
       <c r="D19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>95.736916365065923</v>
+        <v>72.820932267015891</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1985,10 +1865,10 @@
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.6">
       <c r="B20" s="3">
         <v>17</v>
       </c>
@@ -1997,7 +1877,7 @@
       </c>
       <c r="D20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>31.315304016022349</v>
+        <v>18.467693307441092</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2005,10 +1885,10 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.6">
       <c r="B21" s="3">
         <v>18</v>
       </c>
@@ -2017,18 +1897,18 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>18.662937242092205</v>
+        <v>79.394905184523594</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.6">
       <c r="B22" s="3">
         <v>19</v>
       </c>
@@ -2037,18 +1917,18 @@
       </c>
       <c r="D22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>68.568631713251222</v>
+        <v>24.164828843660157</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.6">
       <c r="B23" s="3">
         <v>20</v>
       </c>
@@ -2057,15 +1937,15 @@
       </c>
       <c r="D23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>80.742385042927296</v>
+        <v>22.585602083428224</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2082,29 +1962,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3A3CA-9568-4A2A-887D-B2126F4FAA24}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.3984375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="6"/>
-    <col min="3" max="3" width="13.546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.1484375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.94921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="13"/>
-    <col min="10" max="10" width="8.796875" style="2"/>
-    <col min="11" max="11" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.796875" style="2"/>
-    <col min="14" max="14" width="9.1484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.3984375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="1.44140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="6"/>
+    <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="2" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="13"/>
+    <col min="10" max="10" width="8.77734375" style="2"/>
+    <col min="11" max="11" width="1.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" style="2"/>
+    <col min="14" max="14" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" s="15" customFormat="1" ht="7.2" customHeight="1"/>
@@ -2168,45 +2048,45 @@
     <row r="4" spans="2:20">
       <c r="B4" s="10" t="str">
         <f ca="1">D4&amp;COUNTIF($D$4:D4,D4)</f>
-        <v>Thirds1</v>
+        <v>One1</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
       </c>
       <c r="D4" s="17" t="str">
         <f ca="1">'Table 3.2'!E4</f>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E4" s="16">
         <f ca="1">_xlfn.NORM.INV(RAND(),140,15)</f>
-        <v>135.99833768115207</v>
+        <v>151.38944447935268</v>
       </c>
       <c r="G4" s="19">
         <f ca="1">RANK(H4,H$4:H$13,1) + COUNTIF(H$4:H4,H4)-1</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" s="8">
         <f ca="1">VLOOKUP("One1",$B$4:$E$23,4,FALSE)</f>
-        <v>134.29115480546074</v>
+        <v>151.38944447935268</v>
       </c>
       <c r="I4" s="19">
         <f ca="1">RANK(J4,J$4:J$13,1) + COUNTIF(J$4:J4,J4)-1</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J4" s="8">
         <f ca="1">VLOOKUP("Thirds1",$B$4:$E$23,4,FALSE)</f>
-        <v>135.99833768115207</v>
+        <v>135.35752194407749</v>
       </c>
       <c r="L4" s="14">
         <v>1</v>
       </c>
       <c r="M4" s="18">
         <f ca="1">VLOOKUP(L4,G$4:H$13,2,FALSE)</f>
-        <v>106.13366052093033</v>
+        <v>128.07677787853157</v>
       </c>
       <c r="N4" s="18">
         <f ca="1">VLOOKUP(L4,I$4:J$13,2,FALSE)</f>
-        <v>110.20963248970395</v>
+        <v>116.45112958038666</v>
       </c>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
@@ -2214,45 +2094,45 @@
     <row r="5" spans="2:20">
       <c r="B5" s="10" t="str">
         <f ca="1">D5&amp;COUNTIF($D$4:D5,D5)</f>
-        <v>Thirds2</v>
+        <v>One2</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
       </c>
       <c r="D5" s="17" t="str">
         <f ca="1">'Table 3.2'!E5</f>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E5" s="16">
         <f t="shared" ref="E5:E23" ca="1" si="0">_xlfn.NORM.INV(RAND(),140,15)</f>
-        <v>154.12139528498844</v>
+        <v>161.03577291671846</v>
       </c>
       <c r="G5" s="19">
         <f ca="1">RANK(H5,H$4:H$13,1) + COUNTIF(H$4:H5,H5)-1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="8">
         <f ca="1">VLOOKUP("One2",$B$4:$E$23,4,FALSE)</f>
-        <v>156.29665170846656</v>
+        <v>161.03577291671846</v>
       </c>
       <c r="I5" s="19">
         <f ca="1">RANK(J5,J$4:J$13,1) + COUNTIF(J$4:J5,J5)-1</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J5" s="8">
         <f ca="1">VLOOKUP("Thirds2",$B$4:$E$23,4,FALSE)</f>
-        <v>154.12139528498844</v>
+        <v>121.55663202604309</v>
       </c>
       <c r="L5" s="14">
         <v>2</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M13" ca="1" si="1">VLOOKUP(L5,G$4:H$13,2,FALSE)</f>
-        <v>117.94498002152739</v>
+        <v>131.54639528644978</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" ref="N5:N13" ca="1" si="2">VLOOKUP(L5,I$4:J$13,2,FALSE)</f>
-        <v>122.41912000037549</v>
+        <v>121.55663202604309</v>
       </c>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
@@ -2260,7 +2140,7 @@
     <row r="6" spans="2:20">
       <c r="B6" s="10" t="str">
         <f ca="1">D6&amp;COUNTIF($D$4:D6,D6)</f>
-        <v>One1</v>
+        <v>One3</v>
       </c>
       <c r="C6" s="10">
         <v>3</v>
@@ -2271,7 +2151,7 @@
       </c>
       <c r="E6" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>134.29115480546074</v>
+        <v>144.11947874193419</v>
       </c>
       <c r="G6" s="19">
         <f ca="1">RANK(H6,H$4:H$13,1) + COUNTIF(H$4:H6,H6)-1</f>
@@ -2279,15 +2159,15 @@
       </c>
       <c r="H6" s="8">
         <f ca="1">VLOOKUP("One3",$B$4:$E$23,4,FALSE)</f>
-        <v>135.22187333196032</v>
+        <v>144.11947874193419</v>
       </c>
       <c r="I6" s="19">
         <f ca="1">RANK(J6,J$4:J$13,1) + COUNTIF(J$4:J6,J6)-1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J6" s="8">
         <f ca="1">VLOOKUP("Thirds3",$B$4:$E$23,4,FALSE)</f>
-        <v>186.08449056089816</v>
+        <v>143.59898385144129</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="14">
@@ -2295,11 +2175,11 @@
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>134.29115480546074</v>
+        <v>134.18570934177961</v>
       </c>
       <c r="N6" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>123.1244820437754</v>
+        <v>128.51828728454117</v>
       </c>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
@@ -2307,7 +2187,7 @@
     <row r="7" spans="2:20">
       <c r="B7" s="10" t="str">
         <f ca="1">D7&amp;COUNTIF($D$4:D7,D7)</f>
-        <v>Thirds3</v>
+        <v>Thirds1</v>
       </c>
       <c r="C7" s="10">
         <v>4</v>
@@ -2318,7 +2198,7 @@
       </c>
       <c r="E7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>186.08449056089816</v>
+        <v>135.35752194407749</v>
       </c>
       <c r="G7" s="19">
         <f ca="1">RANK(H7,H$4:H$13,1) + COUNTIF(H$4:H7,H7)-1</f>
@@ -2326,15 +2206,15 @@
       </c>
       <c r="H7" s="8">
         <f ca="1">VLOOKUP("One4",$B$4:$E$23,4,FALSE)</f>
-        <v>139.41531819151447</v>
+        <v>155.62099742864143</v>
       </c>
       <c r="I7" s="19">
         <f ca="1">RANK(J7,J$4:J$13,1) + COUNTIF(J$4:J7,J7)-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J7" s="8">
         <f ca="1">VLOOKUP("Thirds4",$B$4:$E$23,4,FALSE)</f>
-        <v>141.84320667318525</v>
+        <v>128.51828728454117</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="14">
@@ -2342,11 +2222,11 @@
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>135.22187333196032</v>
+        <v>144.11947874193419</v>
       </c>
       <c r="N7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>135.99833768115207</v>
+        <v>130.19626424927088</v>
       </c>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -2354,26 +2234,26 @@
     <row r="8" spans="2:20">
       <c r="B8" s="10" t="str">
         <f ca="1">D8&amp;COUNTIF($D$4:D8,D8)</f>
-        <v>Thirds4</v>
+        <v>One4</v>
       </c>
       <c r="C8" s="10">
         <v>5</v>
       </c>
       <c r="D8" s="17" t="str">
         <f ca="1">'Table 3.2'!E8</f>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E8" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>141.84320667318525</v>
+        <v>155.62099742864143</v>
       </c>
       <c r="G8" s="19">
         <f ca="1">RANK(H8,H$4:H$13,1) + COUNTIF(H$4:H8,H8)-1</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" s="8">
         <f ca="1">VLOOKUP("One5",$B$4:$E$23,4,FALSE)</f>
-        <v>146.79972061145196</v>
+        <v>164.03568702801033</v>
       </c>
       <c r="I8" s="19">
         <f ca="1">RANK(J8,J$4:J$13,1) + COUNTIF(J$4:J8,J8)-1</f>
@@ -2381,7 +2261,7 @@
       </c>
       <c r="J8" s="8">
         <f ca="1">VLOOKUP("Thirds5",$B$4:$E$23,4,FALSE)</f>
-        <v>139.96126829964055</v>
+        <v>132.31031191612186</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="14">
@@ -2389,11 +2269,11 @@
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>138.89387484269784</v>
+        <v>151.38944447935268</v>
       </c>
       <c r="N8" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>139.96126829964055</v>
+        <v>132.31031191612186</v>
       </c>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -2401,7 +2281,7 @@
     <row r="9" spans="2:20">
       <c r="B9" s="10" t="str">
         <f ca="1">D9&amp;COUNTIF($D$4:D9,D9)</f>
-        <v>One2</v>
+        <v>One5</v>
       </c>
       <c r="C9" s="10">
         <v>6</v>
@@ -2412,23 +2292,23 @@
       </c>
       <c r="E9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>156.29665170846656</v>
+        <v>164.03568702801033</v>
       </c>
       <c r="G9" s="19">
         <f ca="1">RANK(H9,H$4:H$13,1) + COUNTIF(H$4:H9,H9)-1</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H9" s="8">
         <f ca="1">VLOOKUP("One6",$B$4:$E$23,4,FALSE)</f>
-        <v>150.97088504069558</v>
+        <v>131.54639528644978</v>
       </c>
       <c r="I9" s="19">
         <f ca="1">RANK(J9,J$4:J$13,1) + COUNTIF(J$4:J9,J9)-1</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J9" s="8">
         <f ca="1">VLOOKUP("Thirds6",$B$4:$E$23,4,FALSE)</f>
-        <v>122.41912000037549</v>
+        <v>152.55002087958064</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="14">
@@ -2436,11 +2316,11 @@
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>139.41531819151447</v>
+        <v>155.62099742864143</v>
       </c>
       <c r="N9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>140.98119874244586</v>
+        <v>134.33960606858159</v>
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -2451,7 +2331,7 @@
     <row r="10" spans="2:20">
       <c r="B10" s="10" t="str">
         <f ca="1">D10&amp;COUNTIF($D$4:D10,D10)</f>
-        <v>Thirds5</v>
+        <v>Thirds2</v>
       </c>
       <c r="C10" s="10">
         <v>7</v>
@@ -2462,23 +2342,23 @@
       </c>
       <c r="E10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>139.96126829964055</v>
+        <v>121.55663202604309</v>
       </c>
       <c r="G10" s="19">
         <f ca="1">RANK(H10,H$4:H$13,1) + COUNTIF(H$4:H10,H10)-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10" s="8">
         <f ca="1">VLOOKUP("One7",$B$4:$E$23,4,FALSE)</f>
-        <v>138.89387484269784</v>
+        <v>134.18570934177961</v>
       </c>
       <c r="I10" s="19">
         <f ca="1">RANK(J10,J$4:J$13,1) + COUNTIF(J$4:J10,J10)-1</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J10" s="8">
         <f ca="1">VLOOKUP("Thirds7",$B$4:$E$23,4,FALSE)</f>
-        <v>123.1244820437754</v>
+        <v>134.33960606858159</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="14">
@@ -2486,44 +2366,44 @@
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>143.73230170665991</v>
+        <v>155.74423614916509</v>
       </c>
       <c r="N10" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>141.84320667318525</v>
+        <v>135.35752194407749</v>
       </c>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="10" t="str">
         <f ca="1">D11&amp;COUNTIF($D$4:D11,D11)</f>
-        <v>One3</v>
+        <v>Thirds3</v>
       </c>
       <c r="C11" s="10">
         <v>8</v>
       </c>
       <c r="D11" s="17" t="str">
         <f ca="1">'Table 3.2'!E11</f>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>135.22187333196032</v>
+        <v>143.59898385144129</v>
       </c>
       <c r="G11" s="19">
         <f ca="1">RANK(H11,H$4:H$13,1) + COUNTIF(H$4:H11,H11)-1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="8">
         <f ca="1">VLOOKUP("One8",$B$4:$E$23,4,FALSE)</f>
-        <v>117.94498002152739</v>
+        <v>128.07677787853157</v>
       </c>
       <c r="I11" s="19">
         <f ca="1">RANK(J11,J$4:J$13,1) + COUNTIF(J$4:J11,J11)-1</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J11" s="8">
         <f ca="1">VLOOKUP("Thirds8",$B$4:$E$23,4,FALSE)</f>
-        <v>147.01449656250819</v>
+        <v>130.19626424927088</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="14">
@@ -2531,17 +2411,17 @@
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>146.79972061145196</v>
+        <v>155.94478209006948</v>
       </c>
       <c r="N11" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>147.01449656250819</v>
+        <v>143.59898385144129</v>
       </c>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="10" t="str">
         <f ca="1">D12&amp;COUNTIF($D$4:D12,D12)</f>
-        <v>Thirds6</v>
+        <v>Thirds4</v>
       </c>
       <c r="C12" s="10">
         <v>9</v>
@@ -2552,7 +2432,7 @@
       </c>
       <c r="E12" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>122.41912000037549</v>
+        <v>128.51828728454117</v>
       </c>
       <c r="G12" s="19">
         <f ca="1">RANK(H12,H$4:H$13,1) + COUNTIF(H$4:H12,H12)-1</f>
@@ -2560,15 +2440,15 @@
       </c>
       <c r="H12" s="8">
         <f ca="1">VLOOKUP("One9",$B$4:$E$23,4,FALSE)</f>
-        <v>143.73230170665991</v>
+        <v>155.74423614916509</v>
       </c>
       <c r="I12" s="19">
         <f ca="1">RANK(J12,J$4:J$13,1) + COUNTIF(J$4:J12,J12)-1</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J12" s="8">
         <f ca="1">VLOOKUP("Thirds9",$B$4:$E$23,4,FALSE)</f>
-        <v>140.98119874244586</v>
+        <v>116.45112958038666</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="14">
@@ -2576,44 +2456,44 @@
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>150.97088504069558</v>
+        <v>161.03577291671846</v>
       </c>
       <c r="N12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>154.12139528498844</v>
+        <v>152.55002087958064</v>
       </c>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="10" t="str">
         <f ca="1">D13&amp;COUNTIF($D$4:D13,D13)</f>
-        <v>One4</v>
+        <v>Thirds5</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
       </c>
       <c r="D13" s="17" t="str">
         <f ca="1">'Table 3.2'!E13</f>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E13" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>139.41531819151447</v>
+        <v>132.31031191612186</v>
       </c>
       <c r="G13" s="19">
         <f ca="1">RANK(H13,H$4:H$13,1) + COUNTIF(H$4:H13,H13)-1</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H13" s="8">
         <f ca="1">VLOOKUP("One10",$B$4:$E$23,4,FALSE)</f>
-        <v>106.13366052093033</v>
+        <v>155.94478209006948</v>
       </c>
       <c r="I13" s="19">
         <f ca="1">RANK(J13,J$4:J$13,1) + COUNTIF(J$4:J13,J13)-1</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J13" s="8">
         <f ca="1">VLOOKUP("Thirds10",$B$4:$E$23,4,FALSE)</f>
-        <v>110.20963248970395</v>
+        <v>159.13033194595255</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="14">
@@ -2621,34 +2501,34 @@
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>156.29665170846656</v>
+        <v>164.03568702801033</v>
       </c>
       <c r="N13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>186.08449056089816</v>
+        <v>159.13033194595255</v>
       </c>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="10" t="str">
         <f ca="1">D14&amp;COUNTIF($D$4:D14,D14)</f>
-        <v>Thirds7</v>
+        <v>One6</v>
       </c>
       <c r="C14" s="10">
         <v>11</v>
       </c>
       <c r="D14" s="17" t="str">
         <f ca="1">'Table 3.2'!E14</f>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>123.1244820437754</v>
+        <v>131.54639528644978</v>
       </c>
     </row>
     <row r="15" spans="2:20">
       <c r="B15" s="10" t="str">
         <f ca="1">D15&amp;COUNTIF($D$4:D15,D15)</f>
-        <v>One5</v>
+        <v>One7</v>
       </c>
       <c r="C15" s="10">
         <v>12</v>
@@ -2659,7 +2539,7 @@
       </c>
       <c r="E15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>146.79972061145196</v>
+        <v>134.18570934177961</v>
       </c>
       <c r="O15" s="24" t="s">
         <v>33</v>
@@ -2670,18 +2550,18 @@
     <row r="16" spans="2:20">
       <c r="B16" s="10" t="str">
         <f ca="1">D16&amp;COUNTIF($D$4:D16,D16)</f>
-        <v>Thirds8</v>
+        <v>One8</v>
       </c>
       <c r="C16" s="10">
         <v>13</v>
       </c>
       <c r="D16" s="17" t="str">
         <f ca="1">'Table 3.2'!E16</f>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>147.01449656250819</v>
+        <v>128.07677787853157</v>
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -2698,63 +2578,63 @@
     <row r="17" spans="2:17">
       <c r="B17" s="10" t="str">
         <f ca="1">D17&amp;COUNTIF($D$4:D17,D17)</f>
-        <v>One6</v>
+        <v>Thirds6</v>
       </c>
       <c r="C17" s="10">
         <v>14</v>
       </c>
       <c r="D17" s="17" t="str">
         <f ca="1">'Table 3.2'!E17</f>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E17" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>150.97088504069558</v>
+        <v>152.55002087958064</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>12</v>
       </c>
       <c r="P17" s="22">
         <f ca="1">M4</f>
-        <v>106.13366052093033</v>
+        <v>128.07677787853157</v>
       </c>
       <c r="Q17" s="22">
         <f ca="1">N4</f>
-        <v>110.20963248970395</v>
+        <v>116.45112958038666</v>
       </c>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="10" t="str">
         <f ca="1">D18&amp;COUNTIF($D$4:D18,D18)</f>
-        <v>One7</v>
+        <v>Thirds7</v>
       </c>
       <c r="C18" s="10">
         <v>15</v>
       </c>
       <c r="D18" s="17" t="str">
         <f ca="1">'Table 3.2'!E18</f>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>138.89387484269784</v>
+        <v>134.33960606858159</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>13</v>
       </c>
       <c r="P18" s="22">
         <f ca="1">M6</f>
-        <v>134.29115480546074</v>
+        <v>134.18570934177961</v>
       </c>
       <c r="Q18" s="22">
         <f ca="1">N6</f>
-        <v>123.1244820437754</v>
+        <v>128.51828728454117</v>
       </c>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="10" t="str">
         <f ca="1">D19&amp;COUNTIF($D$4:D19,D19)</f>
-        <v>One8</v>
+        <v>One9</v>
       </c>
       <c r="C19" s="10">
         <v>16</v>
@@ -2765,24 +2645,24 @@
       </c>
       <c r="E19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>117.94498002152739</v>
+        <v>155.74423614916509</v>
       </c>
       <c r="O19" s="14" t="s">
         <v>14</v>
       </c>
       <c r="P19" s="22">
         <f ca="1">AVERAGE(M8:M9)</f>
-        <v>139.15459651710614</v>
+        <v>153.50522095399705</v>
       </c>
       <c r="Q19" s="22">
         <f ca="1">AVERAGE(N8:N9)</f>
-        <v>140.47123352104319</v>
+        <v>133.32495899235172</v>
       </c>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="10" t="str">
         <f ca="1">D20&amp;COUNTIF($D$4:D20,D20)</f>
-        <v>Thirds9</v>
+        <v>Thirds8</v>
       </c>
       <c r="C20" s="10">
         <v>17</v>
@@ -2793,80 +2673,80 @@
       </c>
       <c r="E20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>140.98119874244586</v>
+        <v>130.19626424927088</v>
       </c>
       <c r="O20" s="14" t="s">
         <v>15</v>
       </c>
       <c r="P20" s="22">
         <f ca="1">M11</f>
-        <v>146.79972061145196</v>
+        <v>155.94478209006948</v>
       </c>
       <c r="Q20" s="22">
         <f ca="1">N11</f>
-        <v>147.01449656250819</v>
+        <v>143.59898385144129</v>
       </c>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="10" t="str">
         <f ca="1">D21&amp;COUNTIF($D$4:D21,D21)</f>
-        <v>Thirds10</v>
+        <v>One10</v>
       </c>
       <c r="C21" s="10">
         <v>18</v>
       </c>
       <c r="D21" s="17" t="str">
         <f ca="1">'Table 3.2'!E21</f>
-        <v>Thirds</v>
+        <v>One</v>
       </c>
       <c r="E21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>110.20963248970395</v>
+        <v>155.94478209006948</v>
       </c>
       <c r="O21" s="14" t="s">
         <v>16</v>
       </c>
       <c r="P21" s="22">
         <f ca="1">M13</f>
-        <v>156.29665170846656</v>
+        <v>164.03568702801033</v>
       </c>
       <c r="Q21" s="22">
         <f ca="1">N13</f>
-        <v>186.08449056089816</v>
+        <v>159.13033194595255</v>
       </c>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="10" t="str">
         <f ca="1">D22&amp;COUNTIF($D$4:D22,D22)</f>
-        <v>One9</v>
+        <v>Thirds9</v>
       </c>
       <c r="C22" s="10">
         <v>19</v>
       </c>
       <c r="D22" s="17" t="str">
         <f ca="1">'Table 3.2'!E22</f>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E22" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>143.73230170665991</v>
+        <v>116.45112958038666</v>
       </c>
     </row>
     <row r="23" spans="2:17">
       <c r="B23" s="10" t="str">
         <f ca="1">D23&amp;COUNTIF($D$4:D23,D23)</f>
-        <v>One10</v>
+        <v>Thirds10</v>
       </c>
       <c r="C23" s="10">
         <v>20</v>
       </c>
       <c r="D23" s="17" t="str">
         <f ca="1">'Table 3.2'!E23</f>
-        <v>One</v>
+        <v>Thirds</v>
       </c>
       <c r="E23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>106.13366052093033</v>
+        <v>159.13033194595255</v>
       </c>
     </row>
   </sheetData>
@@ -2894,15 +2774,15 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.296875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="2"/>
-    <col min="3" max="3" width="14.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.6484375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.6484375" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="8.33203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="2"/>
+    <col min="3" max="3" width="14.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" s="15" customFormat="1" ht="12.9" customHeight="1"/>
@@ -2935,15 +2815,15 @@
       </c>
       <c r="C4" s="8">
         <f ca="1">'Table 3.3'!M4</f>
-        <v>106.13366052093033</v>
+        <v>128.07677787853157</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">C4-$H$14</f>
-        <v>-30.836381557206153</v>
+        <v>-20.093150255533715</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">D4^2</f>
-        <v>950.88242754160376</v>
+        <v>403.73468719145461</v>
       </c>
       <c r="F4" s="21"/>
     </row>
@@ -2953,15 +2833,15 @@
       </c>
       <c r="C5" s="8">
         <f ca="1">'Table 3.3'!M5</f>
-        <v>117.94498002152739</v>
+        <v>131.54639528644978</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D13" ca="1" si="0">C5-$H$14</f>
-        <v>-19.025062056609102</v>
+        <v>-16.623532847615508</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" ref="E5:E13" ca="1" si="1">D5^2</f>
-        <v>361.95298625782732</v>
+        <v>276.34184433575177</v>
       </c>
       <c r="F5" s="21"/>
     </row>
@@ -2971,15 +2851,15 @@
       </c>
       <c r="C6" s="8">
         <f ca="1">'Table 3.3'!M6</f>
-        <v>134.29115480546074</v>
+        <v>134.18570934177961</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6788872726757518</v>
+        <v>-13.984218792285674</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1764370197041281</v>
+        <v>195.55837523051579</v>
       </c>
       <c r="F6" s="21"/>
     </row>
@@ -2989,15 +2869,15 @@
       </c>
       <c r="C7" s="8">
         <f ca="1">'Table 3.3'!M7</f>
-        <v>135.22187333196032</v>
+        <v>144.11947874193419</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7481687461761624</v>
+        <v>-4.0504493921310996</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0560939651071357</v>
+        <v>16.406140278215194</v>
       </c>
       <c r="F7" s="21"/>
     </row>
@@ -3007,15 +2887,15 @@
       </c>
       <c r="C8" s="8">
         <f ca="1">'Table 3.3'!M8</f>
-        <v>138.89387484269784</v>
+        <v>151.38944447935268</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9238327645613538</v>
+        <v>3.2195163452873885</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7011325059997811</v>
+        <v>10.365285497572662</v>
       </c>
       <c r="F8" s="21"/>
     </row>
@@ -3025,15 +2905,15 @@
       </c>
       <c r="C9" s="8">
         <f ca="1">'Table 3.3'!M9</f>
-        <v>139.41531819151447</v>
+        <v>155.62099742864143</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4452761133779859</v>
+        <v>7.4510692945761434</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9793752706569485</v>
+        <v>55.51843363257543</v>
       </c>
       <c r="F9" s="21"/>
     </row>
@@ -3043,15 +2923,15 @@
       </c>
       <c r="C10" s="8">
         <f ca="1">'Table 3.3'!M10</f>
-        <v>143.73230170665991</v>
+        <v>155.74423614916509</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7622596285234238</v>
+        <v>7.5743080150998026</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45.728155283557754</v>
+        <v>57.37014190760511</v>
       </c>
       <c r="F10" s="21"/>
     </row>
@@ -3061,15 +2941,15 @@
       </c>
       <c r="C11" s="8">
         <f ca="1">'Table 3.3'!M11</f>
-        <v>146.79972061145196</v>
+        <v>155.94478209006948</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.829678533315473</v>
+        <v>7.7748539560041934</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>96.622580068323032</v>
+        <v>60.448354037194058</v>
       </c>
       <c r="F11" s="21"/>
     </row>
@@ -3079,15 +2959,15 @@
       </c>
       <c r="C12" s="8">
         <f ca="1">'Table 3.3'!M12</f>
-        <v>150.97088504069558</v>
+        <v>161.03577291671846</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>14.000842962559091</v>
+        <v>12.86584478265317</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>196.02360366224042</v>
+        <v>165.52996197132379</v>
       </c>
       <c r="F12" s="21"/>
     </row>
@@ -3097,15 +2977,15 @@
       </c>
       <c r="C13" s="8">
         <f ca="1">'Table 3.3'!M13</f>
-        <v>156.29665170846656</v>
+        <v>164.03568702801033</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>19.326609630330069</v>
+        <v>15.865758893945042</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>373.51783980316696</v>
+        <v>251.72230528079621</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="2" t="s">
@@ -3121,28 +3001,28 @@
     <row r="14" spans="2:9">
       <c r="C14" s="9">
         <f ca="1">SUM(C4:C13)</f>
-        <v>1369.700420781365</v>
+        <v>1481.6992813406528</v>
       </c>
       <c r="D14" s="9">
         <f ca="1">SUM(D4:D13)</f>
-        <v>2.2737367544323206E-13</v>
+        <v>-2.5579538487363607E-13</v>
       </c>
       <c r="E14" s="9">
         <f ca="1">SUM(E4:E13)</f>
-        <v>2044.640631378187</v>
+        <v>1492.9955293630046</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="11">
         <f ca="1">SQRT(E14/(B13-1))</f>
-        <v>15.072567544229289</v>
+        <v>12.879766773953826</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">AVERAGE(C4:C13)</f>
-        <v>136.97004207813649</v>
+        <v>148.16992813406529</v>
       </c>
       <c r="I14" s="12">
         <f ca="1">MEDIAN(C4:C13)</f>
-        <v>139.15459651710614</v>
+        <v>153.50522095399705</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -3174,15 +3054,15 @@
       </c>
       <c r="C18" s="8">
         <f ca="1">'Table 3.3'!N4</f>
-        <v>110.20963248970395</v>
+        <v>116.45112958038666</v>
       </c>
       <c r="D18" s="7">
         <f ca="1">C18-$H$28</f>
-        <v>-29.966130344163389</v>
+        <v>-18.949779394213067</v>
       </c>
       <c r="E18" s="7">
         <f ca="1">D18^2</f>
-        <v>897.96896780338989</v>
+        <v>359.09413908934215</v>
       </c>
       <c r="F18" s="21"/>
     </row>
@@ -3192,15 +3072,15 @@
       </c>
       <c r="C19" s="8">
         <f ca="1">'Table 3.3'!N5</f>
-        <v>122.41912000037549</v>
+        <v>121.55663202604309</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" ref="D19:D27" ca="1" si="2">C19-$H$28</f>
-        <v>-17.756642833491853</v>
+        <v>-13.84427694855664</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" ref="E19:E27" ca="1" si="3">D19^2</f>
-        <v>315.29836471619757</v>
+        <v>191.66400422833675</v>
       </c>
       <c r="F19" s="21"/>
     </row>
@@ -3210,15 +3090,15 @@
       </c>
       <c r="C20" s="8">
         <f ca="1">'Table 3.3'!N6</f>
-        <v>123.1244820437754</v>
+        <v>128.51828728454117</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-17.051280790091937</v>
+        <v>-6.8826216900585564</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>290.74617658255829</v>
+        <v>47.3704813284645</v>
       </c>
       <c r="F20" s="21"/>
     </row>
@@ -3228,15 +3108,15 @@
       </c>
       <c r="C21" s="8">
         <f ca="1">'Table 3.3'!N7</f>
-        <v>135.99833768115207</v>
+        <v>130.19626424927088</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.1774251527152728</v>
+        <v>-5.2046447253288477</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>17.45088090653822</v>
+        <v>27.088326716893395</v>
       </c>
       <c r="F21" s="21"/>
     </row>
@@ -3246,15 +3126,15 @@
       </c>
       <c r="C22" s="8">
         <f ca="1">'Table 3.3'!N8</f>
-        <v>139.96126829964055</v>
+        <v>132.31031191612186</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.21449453422678744</v>
+        <v>-3.0905970584778686</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6007905213166486E-2</v>
+        <v>9.5517901778720535</v>
       </c>
       <c r="F22" s="21"/>
     </row>
@@ -3264,15 +3144,15 @@
       </c>
       <c r="C23" s="8">
         <f ca="1">'Table 3.3'!N9</f>
-        <v>140.98119874244586</v>
+        <v>134.33960606858159</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80543590857851655</v>
+        <v>-1.0613029060181418</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64872700282770046</v>
+        <v>1.1263638583225528</v>
       </c>
       <c r="F23" s="21"/>
     </row>
@@ -3282,15 +3162,15 @@
       </c>
       <c r="C24" s="8">
         <f ca="1">'Table 3.3'!N10</f>
-        <v>141.84320667318525</v>
+        <v>135.35752194407749</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6674438393179116</v>
+        <v>-4.3387030522239911E-2</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7803689572792574</v>
+        <v>1.8824344175377777E-3</v>
       </c>
       <c r="F24" s="21"/>
     </row>
@@ -3300,15 +3180,15 @@
       </c>
       <c r="C25" s="8">
         <f ca="1">'Table 3.3'!N11</f>
-        <v>147.01449656250819</v>
+        <v>143.59898385144129</v>
       </c>
       <c r="D25" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8387337286408467</v>
+        <v>8.1980748768415594</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>46.768279011249938</v>
+        <v>67.208431686300756</v>
       </c>
       <c r="F25" s="21"/>
     </row>
@@ -3318,15 +3198,15 @@
       </c>
       <c r="C26" s="8">
         <f ca="1">'Table 3.3'!N12</f>
-        <v>154.12139528498844</v>
+        <v>152.55002087958064</v>
       </c>
       <c r="D26" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>13.945632451121099</v>
+        <v>17.149111904980913</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>194.48066446176188</v>
+        <v>294.09203912955809</v>
       </c>
       <c r="F26" s="21"/>
     </row>
@@ -3336,15 +3216,15 @@
       </c>
       <c r="C27" s="8">
         <f ca="1">'Table 3.3'!N13</f>
-        <v>186.08449056089816</v>
+        <v>159.13033194595255</v>
       </c>
       <c r="D27" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45.908727727030822</v>
+        <v>23.729422971352818</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2107.6112815146485</v>
+        <v>563.08551455336681</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="2" t="s">
@@ -3360,28 +3240,28 @@
     <row r="28" spans="2:9">
       <c r="C28" s="9">
         <f ca="1">SUM(C18:C27)</f>
-        <v>1401.7576283386734</v>
+        <v>1354.0090897459972</v>
       </c>
       <c r="D28" s="9">
         <f ca="1">SUM(D18:D27)</f>
-        <v>0</v>
+        <v>-7.1054273576010019E-14</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" ref="E28" ca="1" si="4">SUM(E18:E27)</f>
-        <v>3873.7997188616641</v>
+        <v>1560.2829732028745</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="11">
         <f ca="1">SQRT(E28/(B27-1))</f>
-        <v>20.746618784385792</v>
+        <v>13.166805793369909</v>
       </c>
       <c r="H28" s="12">
         <f ca="1">AVERAGE(C18:C27)</f>
-        <v>140.17576283386734</v>
+        <v>135.40090897459973</v>
       </c>
       <c r="I28" s="12">
         <f ca="1">MEDIAN(C18:C27)</f>
-        <v>140.47123352104319</v>
+        <v>133.32495899235172</v>
       </c>
     </row>
   </sheetData>
